--- a/data/processed/index_uncertainty.xlsx
+++ b/data/processed/index_uncertainty.xlsx
@@ -475,7 +475,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>36535.08333333334</v>
+        <v>36524</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>36560.08333333334</v>
+        <v>36558</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>36571.125</v>
+        <v>36579</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>36615.125</v>
+        <v>36614</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>36650.125</v>
+        <v>36642</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>36686.125</v>
+        <v>36677</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>36713.125</v>
+        <v>36704</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>36739.125</v>
+        <v>36733</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>36781.125</v>
+        <v>36768</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>36803.125</v>
+        <v>36796</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>36831.08333333334</v>
+        <v>36824</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>36867.08333333334</v>
+        <v>36859</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>36901.08333333334</v>
+        <v>36887</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>36943.125</v>
+        <v>36915</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>36978.125</v>
+        <v>36943</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>36979.125</v>
+        <v>36978</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>37008.125</v>
+        <v>37006</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>37043.125</v>
+        <v>37041</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>37075.125</v>
+        <v>37069</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>37102.125</v>
+        <v>37097</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>37137.125</v>
+        <v>37132</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>37162.125</v>
+        <v>37160</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>37194.08333333334</v>
+        <v>37188</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>37228.08333333334</v>
+        <v>37223</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>37259.08333333334</v>
+        <v>37251</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>37291.08333333334</v>
+        <v>37286</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>37319.125</v>
+        <v>37314</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>37347.125</v>
+        <v>37342</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>37375.125</v>
+        <v>37370</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>37410.125</v>
+        <v>37405</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>37435.125</v>
+        <v>37433</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>37463.125</v>
+        <v>37461</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>37498.125</v>
+        <v>37496</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>37526.125</v>
+        <v>37524</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>37547.125</v>
+        <v>37545</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>37561.08333333334</v>
+        <v>37559</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>37589.08333333334</v>
+        <v>37587</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>37617.08333333334</v>
+        <v>37614</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>37651.08333333334</v>
+        <v>37650</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>37678.125</v>
+        <v>37678</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>37707.125</v>
+        <v>37706</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>37741.125</v>
+        <v>37741</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>37771.125</v>
+        <v>37769</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>37799.125</v>
+        <v>37799</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>37833.125</v>
+        <v>37833</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>37862.125</v>
+        <v>37861</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>37889.125</v>
+        <v>37888</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>37925.08333333334</v>
+        <v>37924</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>37953.08333333334</v>
+        <v>37952</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>37979.08333333334</v>
+        <v>37979</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>38016.08333333334</v>
+        <v>38014</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>38044.125</v>
+        <v>38043</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>38076.125</v>
+        <v>38071</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>38103.125</v>
+        <v>38099</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>38135.125</v>
+        <v>38134</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>38163.125</v>
+        <v>38162</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>38197.125</v>
+        <v>38197</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>38217.125</v>
+        <v>38225</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>38260.125</v>
+        <v>38253</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>38288.08333333334</v>
+        <v>38288</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>38292.08333333334</v>
+        <v>38316</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>38322.08333333334</v>
+        <v>38344</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>38353.08333333334</v>
+        <v>38379</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>38384.08333333334</v>
+        <v>38407</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>38412.125</v>
+        <v>38435</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>38471.125</v>
+        <v>38470</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>38473.125</v>
+        <v>38499</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>38504.125</v>
+        <v>38526</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>38534.125</v>
+        <v>38561</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>38565.125</v>
+        <v>38589</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>38596.125</v>
+        <v>38617</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>38626.125</v>
+        <v>38652</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>38657.08333333334</v>
+        <v>38687</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>38687.08333333334</v>
+        <v>38708</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>38718.08333333334</v>
+        <v>38743</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>38777.125</v>
+        <v>38792</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>38808.125</v>
+        <v>38834</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>38868.125</v>
+        <v>38876</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>38899.125</v>
+        <v>38925</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>38930.125</v>
+        <v>38968</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>38991.125</v>
+        <v>39016</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>39022.08333333334</v>
+        <v>39058</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>39083.08333333334</v>
+        <v>39114</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>39142.125</v>
+        <v>39156</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>39173.125</v>
+        <v>39198</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>39234.125</v>
+        <v>39247</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>39264.125</v>
+        <v>39289</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>39326.125</v>
+        <v>39338</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>39356.125</v>
+        <v>39380</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>39417.08333333334</v>
+        <v>39429</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>39448.08333333334</v>
+        <v>39478</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>39508.125</v>
+        <v>39520</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>39554.125</v>
+        <v>39562</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>39600.125</v>
+        <v>39611</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>39652.125</v>
+        <v>39660</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>39701.125</v>
+        <v>39709</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>39750.08333333334</v>
+        <v>39758</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>39783.08333333334</v>
+        <v>39800</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>39814.08333333334</v>
+        <v>39842</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>39873.125</v>
+        <v>39891</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>39932.125</v>
+        <v>39940</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>39965.125</v>
+        <v>39982</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>39995.125</v>
+        <v>40024</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>40057.63769675926</v>
+        <v>40066</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>40106.77097222222</v>
+        <v>40115</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>40153.53515046297</v>
+        <v>40164</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>40187.77307870371</v>
+        <v>40213</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>40256.90980324074</v>
+        <v>40262</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>40280.77208333334</v>
+        <v>40304</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>40351.8047337963</v>
+        <v>40346</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>40364.59837962963</v>
+        <v>40388</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>40445.58465277778</v>
+        <v>40430</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>40462.88775462963</v>
+        <v>40479</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>40539.74549768519</v>
+        <v>40528</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>40551.72954861111</v>
+        <v>40570</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>40624.59274305555</v>
+        <v>40612</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>40638.62409722222</v>
+        <v>40661</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>40715.59922453704</v>
+        <v>40710</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>40729.61886574074</v>
+        <v>40752</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>40769.92262731482</v>
+        <v>40794</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>40824.86472222222</v>
+        <v>40843</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>40863.54011574074</v>
+        <v>40885</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>40915.47509259259</v>
+        <v>40934</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>40991.83993055556</v>
+        <v>40983</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>41006.82640046296</v>
+        <v>41025</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>41047.89047453704</v>
+        <v>41068</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>41116.64232638889</v>
+        <v>41109</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>41135.92011574074</v>
+        <v>41158</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>41207.8783912037</v>
+        <v>41200</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>41255.56703703704</v>
+        <v>41249</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>41290.08333333334</v>
+        <v>41298</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>41355.95972222222</v>
+        <v>41347</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>41370.61784722222</v>
+        <v>41389</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>41423.125</v>
+        <v>41431</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>41480.75197916666</v>
+        <v>41473</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>41499.55001157407</v>
+        <v>41522</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>41571.47010416666</v>
+        <v>41564</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>41591.5340625</v>
+        <v>41613</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>41670.08333333334</v>
+        <v>41662</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>41683.47553240741</v>
+        <v>41704</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>41744.89211805556</v>
+        <v>41739</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>41772.48472222222</v>
+        <v>41795</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>41850.90104166666</v>
+        <v>41844</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>41898.82677083334</v>
+        <v>41893</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>41924.49180555555</v>
+        <v>41949</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>41990.80542824074</v>
+        <v>41984</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>42008.81946759259</v>
+        <v>42033</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>42082.62939814815</v>
+        <v>42075</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>42108.57741898148</v>
+        <v>42131</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>42172.74506944444</v>
+        <v>42166</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>42229.94142361111</v>
+        <v>42222</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>42263.82626157408</v>
+        <v>42257</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>42282.89880787037</v>
+        <v>42306</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>42333.08333333334</v>
+        <v>42341</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>42372.72121527778</v>
+        <v>42397</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>42447.77527777778</v>
+        <v>42439</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>42501.62474537037</v>
+        <v>42495</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>42542.88980324074</v>
+        <v>42537</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>42552.84964120371</v>
+        <v>42577</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>42613.125</v>
+        <v>42619</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>42668.92143518518</v>
+        <v>42668</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>42680.8774537037</v>
+        <v>42710</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>42752.86366898148</v>
+        <v>42752</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>42768.8247337963</v>
+        <v>42796</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>42843.888125</v>
+        <v>42843</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>42861.87266203704</v>
+        <v>42892</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>42917.8584837963</v>
+        <v>42948</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>42991.54032407407</v>
+        <v>42990</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43039.81548611111</v>
+        <v>43039</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43081.43953703704</v>
+        <v>43081</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43146.08333333334</v>
+        <v>43146</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43186.125</v>
+        <v>43186</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43236.125</v>
+        <v>43242</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43271.125</v>
+        <v>43277</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43313.125</v>
+        <v>43319</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43362.125</v>
+        <v>43368</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43404.125</v>
+        <v>43410</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43446.08333333334</v>
+        <v>43452</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43502.08333333334</v>
+        <v>43508</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43545.125</v>
+        <v>43550</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43593.125</v>
+        <v>43599</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43635.125</v>
+        <v>43641</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43677.125</v>
+        <v>43683</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43726.125</v>
+        <v>43732</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43768.125</v>
+        <v>43774</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43810.125</v>
+        <v>43816</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43866.125</v>
+        <v>43872</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43908.125</v>
+        <v>43913</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43957.70833333334</v>
+        <v>43963</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43999.73263888889</v>
+        <v>44005</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44048.125</v>
+        <v>44054</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44090.125</v>
+        <v>44096</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44132.125</v>
+        <v>44138</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44174.125</v>
+        <v>44180</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44216.125</v>
+        <v>44222</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44272.125</v>
+        <v>44278</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44321.125</v>
+        <v>44327</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44363.125</v>
+        <v>44369</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44412.125</v>
+        <v>44418</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44461.125</v>
+        <v>44467</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44496.125</v>
+        <v>44503</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44538.125</v>
+        <v>44544</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44594.125</v>
+        <v>44600</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44636.125</v>
+        <v>44642</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44685.125</v>
+        <v>44691</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44727.125</v>
+        <v>44733</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44776.125</v>
+        <v>44782</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44825.125</v>
+        <v>44831</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44860.125</v>
+        <v>44866</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44902.125</v>
+        <v>44908</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44958.125</v>
+        <v>44964</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45007.125</v>
+        <v>45013</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45049.125</v>
+        <v>45055</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45098.125</v>
+        <v>45104</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45140.125</v>
+        <v>45146</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45189.125</v>
+        <v>45195</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45231.125</v>
+        <v>45237</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45273.125</v>
+        <v>45279</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45322.125</v>
+        <v>45328</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45371.125</v>
+        <v>45377</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45420.125</v>
+        <v>45426</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45462.125</v>
+        <v>45468</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45504.125</v>
+        <v>45510</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45553.125</v>
+        <v>45559</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45602.125</v>
+        <v>45610</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45637.125</v>
+        <v>45643</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45686.125</v>
+        <v>45692</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45735.125</v>
+        <v>45741</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45784.125</v>
+        <v>45790</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45826.125</v>
+        <v>45832</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>

--- a/data/processed/index_uncertainty.xlsx
+++ b/data/processed/index_uncertainty.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J231"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>minute</t>
         </is>
       </c>
       <c r="C1" s="1" t="n">
@@ -466,7831 +466,5213 @@
       <c r="H1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>36524</v>
+        <v>37833</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>42nd Copom minutes</t>
+          <t>86th Copom minutes</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01166666666666667</v>
+        <v>0.02066955814583898</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02221545952525867</v>
+        <v>0.003167724710277902</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.002741782311674785</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.005643247827470404</v>
       </c>
       <c r="G2" t="n">
-        <v>0.007936507936507936</v>
+        <v>0.0158841522102948</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.008510638297872341</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.002695417789757412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>36558</v>
+        <v>37861</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>43nd Copom minutes</t>
+          <t>87th Copom minutes</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.02051541490803734</v>
+        <v>0.00390625</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.0005204267499349467</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.001633986928104575</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.0084909248749534</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01796296296296297</v>
+        <v>0.00182330918368046</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007253797576378221</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.004620927318295739</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.001142857142857143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>36579</v>
+        <v>37888</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>44th Copom minutes</t>
+          <t>88th Copom minutes</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.02208307173209547</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0103448275862069</v>
+        <v>0.0003333333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.001865671641791045</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.00415481236470192</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003875968992248062</v>
+        <v>0.00123365504358655</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.006191950464396284</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
+        <v>0.001694915254237288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>36614</v>
+        <v>37924</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>45th Copom minutes</t>
+          <t>89th Copom minutes</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01755104936164594</v>
+        <v>0.002298850574712644</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.0008093889113719142</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005050505050505051</v>
+        <v>0.01138402742780349</v>
       </c>
       <c r="G5" t="n">
-        <v>0.007445355191256831</v>
+        <v>0.0006802721088435374</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
+        <v>0.003524284816432067</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>36642</v>
+        <v>37952</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>46th Copom minutes</t>
+          <t>90th Copom minutes</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.04386025774806784</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.002263993316624896</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.0009433962264150943</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.01194547354421963</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005629595588235294</v>
+        <v>0.003318512607104395</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
+        <v>0.006009615384615384</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>36677</v>
+        <v>37979</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>47th Copom minutes</t>
+          <t>91st Copom minutes</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.02623389836433508</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.0007062146892655367</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.008711790221176744</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006517379679144385</v>
+        <v>0.0008628127696289905</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009745340731256226</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
+        <v>0.005766305147960936</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>36704</v>
+        <v>38014</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>48th Copom minutes</t>
+          <t>92nd Copom minutes</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.03150643173914884</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0431547619047619</v>
+        <v>0.004541701958850207</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03476190476190476</v>
+        <v>0.009510789961917782</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01358445914897528</v>
+        <v>0.007626187200871858</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04420301984349767</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.02809172574218864</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
+        <v>0.01346965805775782</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>36733</v>
+        <v>38043</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>49th Copom minutes</t>
+          <t>93rd Copom minutes</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.04507612096897811</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.009259259259259259</v>
+        <v>0.004662995289398522</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05698431685273791</v>
+        <v>0.002119565217391305</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01744186046511628</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01000625390869293</v>
+        <v>0.00474802880477162</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01624476248536399</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.03180522914105863</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.02877070619006103</v>
+        <v>0.01205353724320378</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>36768</v>
+        <v>38071</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>50th Copom minutes</t>
+          <t>94th Copom minutes</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.02913305566180742</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.009302325581395349</v>
+        <v>0.003709997962871526</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.004943337017171114</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003105590062111801</v>
+        <v>0.007946182185704956</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0199613006270553</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.005128205128205128</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.02865497076023392</v>
+        <v>0.01103267754097208</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>36796</v>
+        <v>38099</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>51st Copom minutes</t>
+          <t>95th Copom minutes</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.03694619961016492</v>
+        <v>0.0007645259938837921</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01883971291866029</v>
+        <v>0.002755774002672266</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.001892147587511826</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.003067594718714122</v>
       </c>
       <c r="G11" t="n">
-        <v>0.005555555555555556</v>
+        <v>0.004552636382726435</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0134755291005291</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
+        <v>0.01282963698554562</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>36824</v>
+        <v>38134</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>52nd Copom minutes</t>
+          <t>96th Copom minutes</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.02717532389295564</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.003367862296433725</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01733226123470026</v>
+        <v>0.006433670503429833</v>
       </c>
       <c r="F12" t="n">
-        <v>0.015625</v>
+        <v>0.009064756110585747</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.004860158186392688</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006651978065021544</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.01534805482173903</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.005291005291005291</v>
+        <v>0.01912233155417452</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>36859</v>
+        <v>38162</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>53rd Copom minutes</t>
+          <t>97th Copom minutes</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.02620405452799427</v>
+        <v>0.008885116015846066</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02796934865900383</v>
+        <v>0.01081750546729639</v>
       </c>
       <c r="E13" t="n">
-        <v>0.009035409035409036</v>
+        <v>0.02005638945110386</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.01336481125812638</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001821493624772313</v>
+        <v>0.01429216577278007</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002840909090909091</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.009938271604938272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>36887</v>
+        <v>38197</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>54th Copom minutes</t>
+          <t>98th Copom minutes</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.03471023291795351</v>
+        <v>0.01736613014951321</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.0005868544600938967</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003571428571428572</v>
+        <v>0.001803751803751804</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.01270167427701674</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.01659768546815461</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00786967418546366</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.05241935483870968</v>
+        <v>0.005464644051600574</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>36915</v>
+        <v>38225</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>55th Copom minutes</t>
+          <t>99th Copom minutes</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01874211904034478</v>
+        <v>0.004808985741189131</v>
       </c>
       <c r="D15" t="n">
-        <v>0.004629629629629629</v>
+        <v>0.002258317242262953</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01587301587301587</v>
+        <v>0.007278724577532345</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0124223602484472</v>
+        <v>0.00595227883680855</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.01056211958467597</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.006097560975609756</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>36943</v>
+        <v>38253</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>56th Copom minutes</t>
+          <t>100th Copom minutes</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.03259008148714031</v>
+        <v>0.002054617226428525</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.003431773121610875</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002012072434607646</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.01337678795812846</v>
       </c>
       <c r="G16" t="n">
-        <v>0.006694855532064834</v>
+        <v>0.004964111653888615</v>
       </c>
       <c r="H16" t="n">
-        <v>0.007407407407407408</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.006221064814814815</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.04184071289334448</v>
+        <v>0.009019857913762246</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>36978</v>
+        <v>38288</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>57th Copom minutes</t>
+          <t>101st Copom minutes</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0353753729535408</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03561345486811325</v>
+        <v>0.008013064485053281</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02072477253928867</v>
+        <v>0.001219512195121951</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.01066062738099974</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002645502645502645</v>
+        <v>0.002339845969876929</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04201216141514649</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.03737373737373737</v>
+        <v>0.01082685228248646</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>37006</v>
+        <v>38316</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>58th Copom minutes</t>
+          <t>102nd Copom minutes</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.04816847543703767</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02102229780801209</v>
+        <v>0.008036890989861515</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04876847290640394</v>
+        <v>0.0007158196134574087</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02669711241139813</v>
+        <v>0.01077794932203851</v>
       </c>
       <c r="G18" t="n">
-        <v>0.003289473684210526</v>
+        <v>0.002758926209088822</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03905982905982906</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.006856610304886167</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.05357142857142857</v>
+        <v>0.01294916008454778</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>37041</v>
+        <v>38344</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>59th Copom minutes</t>
+          <t>103rd Copom minutes</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.04256811883254643</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.005294564738340665</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.01422832209389453</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02111050924868618</v>
+        <v>0.002238493964596528</v>
       </c>
       <c r="H19" t="n">
-        <v>0.026557364821687</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.0132013201320132</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.03228021978021978</v>
+        <v>0.008570563294972744</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>37069</v>
+        <v>38379</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>60th Copom minutes</t>
+          <t>104th Copom Minutes</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0578955460525177</v>
+        <v>0.002702702702702703</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02583333333333333</v>
+        <v>0.002462369434846499</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01136363636363636</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.01714226244164494</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03006817594603473</v>
+        <v>0.002649173295093588</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03703268043056776</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.04789069371565785</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.03641543938256047</v>
+        <v>0.01214608748527344</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>37097</v>
+        <v>38407</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>61st Copom minutes</t>
+          <t>105th Copom Minutes</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.03469435081323627</v>
+        <v>0.004724409448818898</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02592592592592593</v>
+        <v>0.001420454545454545</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02886996904024768</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.01290385837404186</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01790123456790123</v>
+        <v>0.001942123967258314</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01836327867812126</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.02967403777253299</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.02628968253968254</v>
+        <v>0.01383527042293607</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>37132</v>
+        <v>38435</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>62nd Copom minutes</t>
+          <t>106th Copom Minutes</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.02909795395643148</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03809523809523809</v>
+        <v>0.0006973500697350069</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="F22" t="n">
-        <v>0.007407407407407408</v>
+        <v>0.008012799625538162</v>
       </c>
       <c r="G22" t="n">
-        <v>0.005883962780514504</v>
+        <v>0.002949776714039332</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02999967466155804</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.02018311934936468</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.01525566774507226</v>
+        <v>0.01691023210631054</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>37160</v>
+        <v>38470</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>63rd Copom minutes</t>
+          <t>107th Copom Minutes</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.02847897108629075</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07174908424908424</v>
+        <v>0.001569678972949815</v>
       </c>
       <c r="E23" t="n">
-        <v>0.007407407407407408</v>
+        <v>0.001683501683501683</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.01125452552562527</v>
       </c>
       <c r="G23" t="n">
-        <v>0.004341736694677871</v>
+        <v>0.003646113653184344</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02175037271125123</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.01351351351351351</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.03376587951056036</v>
+        <v>0.01446838795441896</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>37188</v>
+        <v>38499</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>64th Copom minutes</t>
+          <t>108th Copom Minutes</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.04595492011959262</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0375</v>
+        <v>0.01191886997318456</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.007094078853477349</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.01169066853998361</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01076007326007326</v>
+        <v>0.004804140094948107</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02167260843731432</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.006400902484763244</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.04689535388623534</v>
+        <v>0.008642653780398867</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>37223</v>
+        <v>38526</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>65th Copom minutes</t>
+          <t>109th Copom Minutes</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.02350143611061432</v>
+        <v>0.004942726534646476</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03380952380952381</v>
+        <v>0.008851822190186426</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.01257736221581384</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.02409341316645653</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.01623097675089847</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01558358809134288</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.006046509680444832</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.04167261310118453</v>
+        <v>0.02023032238073011</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>37251</v>
+        <v>38561</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>66th Copom minutes</t>
+          <t>110th Copom Minutes</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.02236352457190341</v>
+        <v>0.02320344374512169</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03674055829228243</v>
+        <v>0.00119047619047619</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01875060720878267</v>
+        <v>0.006169472894272336</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.01148284776247814</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.01492987020272795</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03700114563015978</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.01140609520215125</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.05050718512256974</v>
+        <v>0.006565917506243003</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>37286</v>
+        <v>38589</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>67th Copom minutes</t>
+          <t>111th Copom Minutes</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.02363586604965915</v>
+        <v>0.01010804640835601</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.004474300890485862</v>
       </c>
       <c r="E27" t="n">
-        <v>0.005208333333333333</v>
+        <v>0.0004370629370629371</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02865497076023392</v>
+        <v>0.02262018726847861</v>
       </c>
       <c r="G27" t="n">
-        <v>0.003144956837071981</v>
+        <v>0.005107476950741202</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01904651720828191</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.01024833010127128</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.06113331113331113</v>
+        <v>0.005616653574234093</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>37314</v>
+        <v>38617</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>68th Copom minutes</t>
+          <t>112th Copom Minutes</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0280427209091413</v>
+        <v>0.004095300834431269</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03163780663780664</v>
+        <v>0.002392857142857143</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01806451612903226</v>
+        <v>0.0004930966469428008</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03175576146353053</v>
+        <v>0.01759385931381818</v>
       </c>
       <c r="G28" t="n">
-        <v>0.008369201339072214</v>
+        <v>0.004836703526089819</v>
       </c>
       <c r="H28" t="n">
-        <v>0.009219844087202373</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.007575757575757576</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.01227447500739426</v>
+        <v>0.008010338082125881</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>37342</v>
+        <v>38652</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>69th Copom minutes</t>
+          <t>113th Copom Minutes</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.02165623066462525</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01515151515151515</v>
+        <v>0.004049382716049383</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.003614850195397308</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.01329657734763875</v>
       </c>
       <c r="G29" t="n">
-        <v>0.003527336860670194</v>
+        <v>0.001835505135548875</v>
       </c>
       <c r="H29" t="n">
-        <v>0.03926583861643696</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.01580564324042163</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.02698661882335351</v>
+        <v>0.008163332347820374</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>37370</v>
+        <v>38687</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>70th Copom minutes</t>
+          <t>114th Copom Minutes</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.02179881981686687</v>
+        <v>0.0009009009009009009</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02472125627863333</v>
+        <v>0.002130625248904819</v>
       </c>
       <c r="E30" t="n">
-        <v>0.006802721088435374</v>
+        <v>0.002356744965135756</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.00836140501620381</v>
       </c>
       <c r="G30" t="n">
-        <v>0.006177606177606178</v>
+        <v>0.002145721364299739</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01801840464200461</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.02363905440770181</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.02550101661951909</v>
+        <v>0.006280193236714976</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>37405</v>
+        <v>38708</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>71st Copom minutes</t>
+          <t>115th Copom Minutes</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.03476060527303705</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02077922077922078</v>
+        <v>0.004810233891363576</v>
       </c>
       <c r="E31" t="n">
-        <v>0.008403361344537815</v>
+        <v>0.003149760618193017</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0108695652173913</v>
+        <v>0.007357099794074584</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01752543343569453</v>
+        <v>0.003391297746551223</v>
       </c>
       <c r="H31" t="n">
-        <v>0.03142777528001122</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.003875968992248062</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.03564089097177332</v>
+        <v>0.003198294243070362</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>37433</v>
+        <v>38743</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>72nd Copom minutes</t>
+          <t>116th Copom Minutes</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.04082595729830907</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03588801625519122</v>
+        <v>0.004200696211005489</v>
       </c>
       <c r="E32" t="n">
-        <v>0.03918764302059496</v>
+        <v>0.004146232555323464</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0375</v>
+        <v>0.01689664889123999</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03160216886853021</v>
+        <v>0.002193212609672503</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0622633582826501</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.01831443412755637</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.05977293361644896</v>
+        <v>0.004074863776356314</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>37461</v>
+        <v>38792</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>73rd Copom minutes</t>
+          <t>117th Copom Minutes</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.06429241751213646</v>
+        <v>0.001131221719457014</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03482708536799139</v>
+        <v>0.004037206898779148</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06718346253229973</v>
+        <v>0.002408342686120464</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01890756302521008</v>
+        <v>0.009707790404834528</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0180302849686281</v>
+        <v>0.002904522047297246</v>
       </c>
       <c r="H33" t="n">
-        <v>0.05695814638081488</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.06269125753438771</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.03300437934158864</v>
+        <v>0.00443290369760958</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>37496</v>
+        <v>38834</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>74th Copom minutes</t>
+          <t>118th Copom Minutes</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.03975333905021664</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.03786838809597914</v>
+        <v>0.0040769048465458</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02179783950617284</v>
+        <v>0.0005128205128205128</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.009526585063642332</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01326699550785119</v>
+        <v>0.0006667108603701818</v>
       </c>
       <c r="H34" t="n">
-        <v>0.03287021726804907</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.0310084706959707</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.02306468716861082</v>
+        <v>0.01018581123381664</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>37524</v>
+        <v>38876</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>75th Copom minutes</t>
+          <t>119th Copom Minutes</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.02811818786607021</v>
+        <v>0.00286767349874146</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02986633249791144</v>
+        <v>0.007333575515393698</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.01132916609304348</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.01562128519801025</v>
       </c>
       <c r="G35" t="n">
-        <v>0.007904810706534844</v>
+        <v>0.003503478964034899</v>
       </c>
       <c r="H35" t="n">
-        <v>0.03596818867197557</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.01821139095823638</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.02642246642246642</v>
+        <v>0.01138362868658435</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>37545</v>
+        <v>38925</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>76th Copom minutes</t>
+          <t>120th Copom Minutes</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.02221014998469406</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02571692876965772</v>
+        <v>0.02009021054411703</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.004258902225409402</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.01423781288356426</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.01456885355551863</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01908602150537634</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
+        <v>0.01041693417604733</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>37559</v>
+        <v>38968</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>77th Copom minutes</t>
+          <t>121st Copom Minutes</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.04780012723578254</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.007446649862993646</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.002147081459877669</v>
       </c>
       <c r="F37" t="n">
-        <v>0.002083333333333333</v>
+        <v>0.01345086316145284</v>
       </c>
       <c r="G37" t="n">
-        <v>0.006082408691631992</v>
+        <v>0.002479031483111758</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03438085388210423</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.003401360544217687</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.03553164966208444</v>
+        <v>0.0103188881935753</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>37587</v>
+        <v>39016</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>78th Copom minutes</t>
+          <t>122th Copom Minutes</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.02491653694402836</v>
+        <v>0.001272264631043257</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02917818740399385</v>
+        <v>0.005356733906492905</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.01312709326148436</v>
       </c>
       <c r="G38" t="n">
-        <v>0.004412536525214884</v>
+        <v>0.001065869737319595</v>
       </c>
       <c r="H38" t="n">
-        <v>0.03734658500640235</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.009144385026737969</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.03875661375661375</v>
+        <v>0.01020502857528521</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>37614</v>
+        <v>39058</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>79th Copom minutes</t>
+          <t>123th Copom Minutes</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01834313452246464</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03383458646616541</v>
+        <v>0.004129204129204129</v>
       </c>
       <c r="E39" t="n">
-        <v>0.007575757575757576</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02552380952380953</v>
+        <v>0.007284335947327895</v>
       </c>
       <c r="G39" t="n">
-        <v>0.001851851851851852</v>
+        <v>0.0009592550382576038</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02088513338513338</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.003703703703703703</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.04806631865304022</v>
+        <v>0.007070841392649903</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>37650</v>
+        <v>39114</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>80th Copom minutes</t>
+          <t>124th Copom Minutes</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.0197530021167396</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03509358288770054</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="E40" t="n">
-        <v>0.008130081300813009</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.009402093767109824</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.001943938449999208</v>
       </c>
       <c r="H40" t="n">
-        <v>0.008048780487804878</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.01309523809523809</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.02886002886002886</v>
+        <v>0.006682871112663771</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>37678</v>
+        <v>39156</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>81st Copom minutes</t>
+          <t>125th Copom Minutes</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.039732488392984</v>
+        <v>0.0004901960784313725</v>
       </c>
       <c r="D41" t="n">
-        <v>0.05893719806763285</v>
+        <v>0.00498045481024818</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01212121212121212</v>
+        <v>0.01059531543906544</v>
       </c>
       <c r="G41" t="n">
-        <v>0.007410636442894507</v>
+        <v>0.002005013143477019</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02912466006679824</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.029272030651341</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.03666666666666667</v>
+        <v>0.0101043510405696</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>37706</v>
+        <v>39198</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>82nd Copom minutes</t>
+          <t>126th Copom Minutes</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.03017335581595068</v>
+        <v>0.00119047619047619</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.005467646030505067</v>
       </c>
       <c r="E42" t="n">
-        <v>0.03675213675213675</v>
+        <v>0.001587301587301587</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02</v>
+        <v>0.0099573579373617</v>
       </c>
       <c r="G42" t="n">
-        <v>0.002164502164502165</v>
+        <v>0.001984267827983005</v>
       </c>
       <c r="H42" t="n">
-        <v>0.006838570858421975</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.06418650793650793</v>
+        <v>0.007943714358908628</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>37741</v>
+        <v>39247</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>83rd Copom minutes</t>
+          <t>127th Copom Minutes</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.05987363775836644</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="D43" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.00648812489305918</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.00716843783381874</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01844532279314888</v>
+        <v>0.01058663033594183</v>
       </c>
       <c r="G43" t="n">
-        <v>0.002645502645502645</v>
+        <v>0.012371686441463</v>
       </c>
       <c r="H43" t="n">
-        <v>0.001893939393939394</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.005173992673992674</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.02793659043659044</v>
+        <v>0.007744174902149551</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>37769</v>
+        <v>39289</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>84th Copom minutes</t>
+          <t>128th Copom Minutes</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.02764872886824106</v>
+        <v>0.01777583363541357</v>
       </c>
       <c r="D44" t="n">
-        <v>0.04497354497354497</v>
+        <v>0.007284382284382284</v>
       </c>
       <c r="E44" t="n">
-        <v>0.005434782608695652</v>
+        <v>0.001114827201783724</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03125</v>
+        <v>0.01201967654816491</v>
       </c>
       <c r="G44" t="n">
-        <v>0.003636363636363636</v>
+        <v>0.01510538058983736</v>
       </c>
       <c r="H44" t="n">
-        <v>0.005360205831903945</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.005698005698005697</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.04738015607580825</v>
+        <v>0.005943801220382161</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>37799</v>
+        <v>39338</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>85th Copom minutes</t>
+          <t>129th Copom Minutes</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.03322058322058322</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03453309465967694</v>
+        <v>0.006022756887381393</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02328855721393035</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01428571428571429</v>
+        <v>0.02121351883256881</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05165530548509271</v>
+        <v>0.002170277484473607</v>
       </c>
       <c r="H45" t="n">
-        <v>0.04757861817391879</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.01915445665445666</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.02419266557197592</v>
+        <v>0.006583734259919221</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>37833</v>
+        <v>39380</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>86th Copom minutes</t>
+          <t>130th Copom Minutes</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.01096935494244003</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.003087478559176672</v>
       </c>
       <c r="E46" t="n">
-        <v>0.04262752122792691</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01355820105820106</v>
+        <v>0.01261068960775076</v>
       </c>
       <c r="G46" t="n">
-        <v>0.004899645808736718</v>
+        <v>0.001404828928454278</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0345252039479885</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.03763880422426149</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.01582278481012658</v>
+        <v>0.007441345737652634</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>37861</v>
+        <v>39429</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>87th Copom minutes</t>
+          <t>131st Copom Minutes</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.02302743037122088</v>
+        <v>0.0008984725965858042</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02598403058929374</v>
+        <v>0.006657313274960334</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004166666666666667</v>
+        <v>0.001500973802515779</v>
       </c>
       <c r="F47" t="n">
-        <v>0.006077694235588973</v>
+        <v>0.01319807949795529</v>
       </c>
       <c r="G47" t="n">
-        <v>0.004818277545550274</v>
+        <v>0.0006290286662578895</v>
       </c>
       <c r="H47" t="n">
-        <v>0.005980861244019139</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.006760728982951205</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.01436781609195402</v>
+        <v>0.008878968253968254</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>37888</v>
+        <v>39478</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>88th Copom minutes</t>
+          <t>132nd Copom Minutes</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.01321856931787703</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0331567313827363</v>
+        <v>0.003013926930713157</v>
       </c>
       <c r="E48" t="n">
-        <v>0.003205128205128205</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02511961722488038</v>
+        <v>0.0113638428960315</v>
       </c>
       <c r="G48" t="n">
-        <v>0.004166666666666667</v>
+        <v>0.0006131659627100356</v>
       </c>
       <c r="H48" t="n">
-        <v>0.006282660290884076</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.003134796238244514</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.02014138988928905</v>
+        <v>0.008816000022626943</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>37924</v>
+        <v>39520</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>89th Copom minutes</t>
+          <t>133rd Copom Minutes</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.03850381630971979</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03164160401002506</v>
+        <v>0.002383217078841683</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>0.01363696482816395</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.00142736776408176</v>
       </c>
       <c r="H49" t="n">
-        <v>0.001488095238095238</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.006092691622103387</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.0291970802919708</v>
+        <v>0.007900843388166445</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>37952</v>
+        <v>39562</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>90th Copom minutes</t>
+          <t>134th Copom Minutes</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.02820700161671434</v>
+        <v>0.001082251082251082</v>
       </c>
       <c r="D50" t="n">
-        <v>0.05160314579552329</v>
+        <v>0.002379679144385026</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0114353782013103</v>
+        <v>0.01019650633622941</v>
       </c>
       <c r="G50" t="n">
-        <v>0.004540229885057472</v>
+        <v>0.001232682598690519</v>
       </c>
       <c r="H50" t="n">
-        <v>0.01317137006482321</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.006526710947785075</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.02269612881123673</v>
+        <v>0.008606409916808123</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>37979</v>
+        <v>39611</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>91st Copom minutes</t>
+          <t>135th Copom Minutes</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.01909105387366257</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.04595274836547389</v>
+        <v>0.005463458110516934</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>0.01126265125912836</v>
       </c>
       <c r="F51" t="n">
-        <v>0.009444444444444445</v>
+        <v>0.01194302740807597</v>
       </c>
       <c r="G51" t="n">
-        <v>0.003846153846153846</v>
+        <v>0.009545945189123085</v>
       </c>
       <c r="H51" t="n">
-        <v>0.004166666666666667</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.006693249822076983</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>38014</v>
+        <v>39660</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>92nd Copom minutes</t>
+          <t>136th Copom Minutes</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.03073349818030669</v>
+        <v>0.01610402127467428</v>
       </c>
       <c r="D52" t="n">
-        <v>0.04277361949686778</v>
+        <v>0.0081897012452568</v>
       </c>
       <c r="E52" t="n">
-        <v>0.008876749743939911</v>
+        <v>0.009872651943260674</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0388422743102546</v>
+        <v>0.01143875569214283</v>
       </c>
       <c r="G52" t="n">
-        <v>0.001096491228070175</v>
+        <v>0.0152983899240025</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02889848690153568</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.006971153846153847</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.02433977138352385</v>
+        <v>0.008642952249897938</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>38043</v>
+        <v>39709</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>93rd Copom minutes</t>
+          <t>137th Copom Minutes</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.005847953216374269</v>
+        <v>0.0005621135469364812</v>
       </c>
       <c r="D53" t="n">
-        <v>0.03440453384418902</v>
+        <v>0.005589863235003607</v>
       </c>
       <c r="E53" t="n">
-        <v>0.007407407407407407</v>
+        <v>0.001165501165501166</v>
       </c>
       <c r="F53" t="n">
-        <v>0.05994863765227809</v>
+        <v>0.01042873773190385</v>
       </c>
       <c r="G53" t="n">
-        <v>0.004380540094825808</v>
+        <v>0.002401010748812074</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01436010690861623</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.005722114764667955</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.03191489361702127</v>
+        <v>0.008918636283443887</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>38071</v>
+        <v>39758</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>94th Copom minutes</t>
+          <t>138th Copom Minutes</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.01572975894337834</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.02677731705181073</v>
+        <v>0.005727367870225013</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.0007662835249042146</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02391304347826087</v>
+        <v>0.01448384759617828</v>
       </c>
       <c r="G54" t="n">
-        <v>0.002801120448179272</v>
+        <v>0.001709715306794281</v>
       </c>
       <c r="H54" t="n">
-        <v>0.02831763419118219</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.004155844155844156</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.03191489361702127</v>
+        <v>0.01835008401696524</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>38099</v>
+        <v>39800</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>95th Copom minutes</t>
+          <t>139th Copom Minutes</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.0108068149816953</v>
+        <v>0.0004826254826254826</v>
       </c>
       <c r="D55" t="n">
-        <v>0.02492492492492492</v>
+        <v>0.003710431762125441</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.001742060362750018</v>
       </c>
       <c r="F55" t="n">
-        <v>0.03586956521739131</v>
+        <v>0.01102587629726924</v>
       </c>
       <c r="G55" t="n">
-        <v>0.004464285714285714</v>
+        <v>0.002122012413569005</v>
       </c>
       <c r="H55" t="n">
-        <v>0.009545194740320961</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.007849796161484474</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.04</v>
+        <v>0.02068302176551857</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>38134</v>
+        <v>39842</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>96th Copom minutes</t>
+          <t>140th Copom Minutes</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.02789125814565215</v>
+        <v>0.0006514657980456026</v>
       </c>
       <c r="D56" t="n">
-        <v>0.02728004574411766</v>
+        <v>0.004864121087031304</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>0.0004273504273504274</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05177530471648119</v>
+        <v>0.01294756014960331</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01506060606060606</v>
+        <v>0.00114070237238646</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02432694053975518</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.003982177666388192</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.006825219065809298</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>38162</v>
+        <v>39891</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>97th Copom minutes</t>
+          <t>141st Copom Minutes</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.0718576244824231</v>
+        <v>0.0003562522265764161</v>
       </c>
       <c r="D57" t="n">
-        <v>0.03785446762974853</v>
+        <v>0.003020109530921921</v>
       </c>
       <c r="E57" t="n">
-        <v>0.04249362868314481</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>0.009331715317918756</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04537745293593626</v>
+        <v>0.0006236442178014882</v>
       </c>
       <c r="H57" t="n">
-        <v>0.03886496212961137</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.02161290566022023</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.04145444255800793</v>
+        <v>0.007465557344784397</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>38197</v>
+        <v>39940</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>98th Copom minutes</t>
+          <t>142nd Copom Minutes</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.02974085955452415</v>
+        <v>0.0006127450980392157</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.00505959347690387</v>
       </c>
       <c r="E58" t="n">
-        <v>0.03369231968820705</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.008937670288084369</v>
       </c>
       <c r="G58" t="n">
-        <v>0.004047619047619047</v>
+        <v>0.0008717906587481505</v>
       </c>
       <c r="H58" t="n">
-        <v>0.03853942499550526</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.04389982272619624</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.0125</v>
+        <v>0.009228703875309996</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>38225</v>
+        <v>39982</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>99th Copom minutes</t>
+          <t>143rd Copom Minutes</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.02433205334842074</v>
+        <v>0.009404388714733543</v>
       </c>
       <c r="D59" t="n">
-        <v>0.03150257289879931</v>
+        <v>0.006942070382199031</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01010015712884565</v>
+        <v>0.009409382353019998</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01428571428571429</v>
+        <v>0.009635604494580978</v>
       </c>
       <c r="G59" t="n">
-        <v>0.004938271604938272</v>
+        <v>0.01091267508099286</v>
       </c>
       <c r="H59" t="n">
-        <v>0.01662712287712288</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.01735596755740278</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.02066991732033072</v>
+        <v>0.008797068672894299</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>38253</v>
+        <v>40024</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>100th Copom minutes</t>
+          <t>144th Copom Minutes</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.02923694938624834</v>
+        <v>0.01278769512299964</v>
       </c>
       <c r="D60" t="n">
-        <v>0.03211968107032235</v>
+        <v>0.00242478670857656</v>
       </c>
       <c r="E60" t="n">
-        <v>0.008032890575585072</v>
+        <v>0.006124089452425285</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01902943630617622</v>
+        <v>0.01151522121921832</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>0.01541234515972456</v>
       </c>
       <c r="H60" t="n">
-        <v>0.01852926213493745</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.005297997394831159</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.009144097280886065</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>38288</v>
+        <v>40066</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>101st Copom minutes</t>
+          <t>145th Copom Minutes</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.03729976393320678</v>
+        <v>0.001501501501501501</v>
       </c>
       <c r="D61" t="n">
-        <v>0.04044201412622465</v>
+        <v>0.003146753950644467</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00453514739229025</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.008130081300813009</v>
+        <v>0.01178357588015237</v>
       </c>
       <c r="G61" t="n">
-        <v>0.007458485786659161</v>
+        <v>0.002988773527153031</v>
       </c>
       <c r="H61" t="n">
-        <v>0.005355529745773648</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.004785934558852977</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.03301553672316384</v>
+        <v>0.009458789367256186</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>38316</v>
+        <v>40115</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>102nd Copom minutes</t>
+          <t>146th Copom Minutes</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.02395043612945301</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.03001976772918211</v>
+        <v>0.002962287982677734</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0111876618259597</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.02578981302385558</v>
+        <v>0.01181149514682974</v>
       </c>
       <c r="G62" t="n">
-        <v>0.001886792452830189</v>
+        <v>0.001627200737866256</v>
       </c>
       <c r="H62" t="n">
-        <v>0.007510250210260724</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.00902741424438628</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.03876146788990826</v>
+        <v>0.01026459937744163</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>38344</v>
+        <v>40164</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>103rd Copom minutes</t>
+          <t>147th Copom Minutes</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.02891225104469893</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0408248816143553</v>
+        <v>0.001973196705693053</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.02228855721393035</v>
+        <v>0.01216229206820134</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>0.002591161474059081</v>
       </c>
       <c r="H63" t="n">
-        <v>0.003966131907308378</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.008918466329259691</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.0190589636688505</v>
+        <v>0.009177275915631108</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>38379</v>
+        <v>40213</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>104th Copom Minutes</t>
+          <t>148th Copom Minutes</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.0477694585095243</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03889154704944178</v>
+        <v>0.001273885350318471</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01524390243902439</v>
+        <v>0.01109399987882859</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>0.00114538162353983</v>
       </c>
       <c r="H64" t="n">
-        <v>0.005468750000000001</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.008874207261304036</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.01149425287356322</v>
+        <v>0.01040665144536734</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>38407</v>
+        <v>40262</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>105th Copom Minutes</t>
+          <t>149th Copom Minutes</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0409570509772267</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.04385964912280702</v>
+        <v>0.002228532625470708</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003977485928705441</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.02020469048770935</v>
+        <v>0.01109711674246739</v>
       </c>
       <c r="G65" t="n">
-        <v>0.003787878787878788</v>
+        <v>0.001469393235549206</v>
       </c>
       <c r="H65" t="n">
-        <v>0.01003919236501204</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.01282135076252723</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.01858889623265036</v>
+        <v>0.005295688350926783</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>38435</v>
+        <v>40304</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>106th Copom Minutes</t>
+          <t>150th Copom Minutes</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.02458623149634385</v>
+        <v>0.001275510204081633</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03479793233082706</v>
+        <v>0.00101010101010101</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.04393785883147585</v>
+        <v>0.01035656001162354</v>
       </c>
       <c r="G66" t="n">
-        <v>0.004662004662004662</v>
+        <v>0.001168232321057696</v>
       </c>
       <c r="H66" t="n">
-        <v>0.003584229390681004</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.01451736014989027</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.01149425287356322</v>
+        <v>0.006664386408854615</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>38470</v>
+        <v>40346</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>107th Copom Minutes</t>
+          <t>151st Copom Minutes</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.03506655790997814</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.03522536394176932</v>
+        <v>0.002013162988772745</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001373626373626374</v>
+        <v>0.00679953874780512</v>
       </c>
       <c r="F67" t="n">
-        <v>0.04672479320366645</v>
+        <v>0.01808963434501543</v>
       </c>
       <c r="G67" t="n">
-        <v>0.002597402597402597</v>
+        <v>0.01364499374504914</v>
       </c>
       <c r="H67" t="n">
-        <v>0.002747252747252747</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.01349305165192015</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.01643026004728132</v>
+        <v>0.006918399329466523</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>38499</v>
+        <v>40388</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>108th Copom Minutes</t>
+          <t>152nd Copom Minutes</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.04446153875332748</v>
+        <v>0.007975222609368952</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0404147690899052</v>
+        <v>0.0008264462809917355</v>
       </c>
       <c r="E68" t="n">
-        <v>0.002212389380530973</v>
+        <v>0.007831232722371621</v>
       </c>
       <c r="F68" t="n">
-        <v>0.02501673360107095</v>
+        <v>0.01423010254036817</v>
       </c>
       <c r="G68" t="n">
-        <v>0.01654476084479019</v>
+        <v>0.01332012628582768</v>
       </c>
       <c r="H68" t="n">
-        <v>0.01703703703703703</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.004329004329004329</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.03777649916890424</v>
+        <v>0.00377936031984008</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>38526</v>
+        <v>40430</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>109th Copom Minutes</t>
+          <t>153rd Copom Minutes</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.05624453470988125</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04992972827749644</v>
+        <v>0.00324360105913504</v>
       </c>
       <c r="E69" t="n">
-        <v>0.02283054247339961</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.01309664706378828</v>
       </c>
       <c r="G69" t="n">
-        <v>0.02977816746262194</v>
+        <v>0.002376664633418452</v>
       </c>
       <c r="H69" t="n">
-        <v>0.05034668520779632</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.02173350576326342</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.0293236301369863</v>
+        <v>0.007035154266509179</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>38561</v>
+        <v>40479</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>110th Copom Minutes</t>
+          <t>154th Copom Minutes</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.02797691241445031</v>
+        <v>0.001019367991845056</v>
       </c>
       <c r="D70" t="n">
-        <v>0.03102453102453102</v>
+        <v>0.001962809917355372</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0380639035275127</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.008333333333333333</v>
+        <v>0.01023932399175192</v>
       </c>
       <c r="G70" t="n">
-        <v>0.015997890997891</v>
+        <v>0.002046570599054927</v>
       </c>
       <c r="H70" t="n">
-        <v>0.03757265182193783</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.04511345332080129</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.01030927835051546</v>
+        <v>0.007108366211963361</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>38589</v>
+        <v>40528</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>111th Copom Minutes</t>
+          <t>155th Copom Minutes</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.047211371348334</v>
+        <v>0.001092896174863388</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0353030303030303</v>
+        <v>0.001098901098901099</v>
       </c>
       <c r="E71" t="n">
-        <v>0.01007736427904495</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.009146341463414634</v>
+        <v>0.008586552792023557</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0009803921568627451</v>
+        <v>0.000595400280544539</v>
       </c>
       <c r="H71" t="n">
-        <v>0.006142728093947606</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.02489857767761579</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.0202020202020202</v>
+        <v>0.008179876802282009</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>38617</v>
+        <v>40570</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>112th Copom Minutes</t>
+          <t>156th Copom Minutes</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.04847568896727152</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.04142300194931774</v>
+        <v>0.0010351966873706</v>
       </c>
       <c r="E72" t="n">
-        <v>0.006152460984393758</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.01876760563380282</v>
+        <v>0.009957866982410586</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0009861932938856016</v>
+        <v>0.0009304246116670201</v>
       </c>
       <c r="H72" t="n">
-        <v>0.00601029020589616</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.02077309782189378</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.01560102301790281</v>
+        <v>0.009200975196099215</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>38652</v>
+        <v>40612</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>113th Copom Minutes</t>
+          <t>157th Copom Minutes</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.0403351841848479</v>
+        <v>0.0009578544061302681</v>
       </c>
       <c r="D73" t="n">
-        <v>0.03586525189786059</v>
+        <v>0.0009652509652509653</v>
       </c>
       <c r="E73" t="n">
-        <v>0.00582010582010582</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01881081081081081</v>
+        <v>0.01148709178190071</v>
       </c>
       <c r="G73" t="n">
-        <v>0.007017073388754805</v>
+        <v>0.0008755805743298397</v>
       </c>
       <c r="H73" t="n">
-        <v>0.001612903225806452</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.003882996920971604</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.01680848095968754</v>
+        <v>0.0114022281349014</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>38687</v>
+        <v>40661</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>114th Copom Minutes</t>
+          <t>158th Copom Minutes</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.02182327476445124</v>
+        <v>0.002415458937198068</v>
       </c>
       <c r="D74" t="n">
-        <v>0.03528874269005848</v>
+        <v>0.001975662633750612</v>
       </c>
       <c r="E74" t="n">
-        <v>0.002976190476190476</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00821917808219178</v>
+        <v>0.008482005096423323</v>
       </c>
       <c r="G74" t="n">
-        <v>0.004762493814943098</v>
+        <v>0.0007939058040140378</v>
       </c>
       <c r="H74" t="n">
-        <v>0.003496503496503497</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.007508188460569412</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.009259259259259259</v>
+        <v>0.009881357172240491</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>38708</v>
+        <v>40710</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>115th Copom Minutes</t>
+          <t>159th Copom Minutes</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.01620574832509892</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.04646856158484065</v>
+        <v>0.003693573649391028</v>
       </c>
       <c r="E75" t="n">
-        <v>0.001388888888888889</v>
+        <v>0.006220423427463723</v>
       </c>
       <c r="F75" t="n">
-        <v>0.01018264840182648</v>
+        <v>0.01431654535018312</v>
       </c>
       <c r="G75" t="n">
-        <v>0.005545380545380545</v>
+        <v>0.01387299874950701</v>
       </c>
       <c r="H75" t="n">
-        <v>0.00937707516654885</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.008728340532214624</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.02009803921568627</v>
+        <v>0.01004889799313675</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>38743</v>
+        <v>40752</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>116th Copom Minutes</t>
+          <t>160th Copom Minutes</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.03192153192153192</v>
+        <v>0.009618611362797409</v>
       </c>
       <c r="D76" t="n">
-        <v>0.05661375661375662</v>
+        <v>0.003185194782758919</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>0.008091553755102192</v>
       </c>
       <c r="F76" t="n">
-        <v>0.02177574835109082</v>
+        <v>0.01088754724074894</v>
       </c>
       <c r="G76" t="n">
-        <v>0.008585164835164834</v>
+        <v>0.01701044336627756</v>
       </c>
       <c r="H76" t="n">
-        <v>0.008240916386983804</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.007745954057020857</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.008547008547008548</v>
+        <v>0.007592362806708562</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>38792</v>
+        <v>40794</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>117th Copom Minutes</t>
+          <t>161st Copom Minutes</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.02719708484894712</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.05091424477463165</v>
+        <v>0.000835421888053467</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001194743130227001</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.01660561660561661</v>
+        <v>0.01111656911889665</v>
       </c>
       <c r="G77" t="n">
-        <v>0.004221388367729831</v>
+        <v>0.004301469632985159</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01313147758563018</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.009136697808902821</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.02040816326530612</v>
+        <v>0.01031054798708369</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>38834</v>
+        <v>40843</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>118th Copom Minutes</t>
+          <t>162nd Copom Minutes</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.02081770036632358</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.04841820987654321</v>
+        <v>0.001204819277108434</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002164502164502165</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.02405751419010747</v>
+        <v>0.009117497043294377</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00108695652173913</v>
+        <v>0.001983312807507675</v>
       </c>
       <c r="H78" t="n">
-        <v>0.006187074829931973</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.00165016501650165</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.01591117216117216</v>
+        <v>0.006888452282678771</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>38876</v>
+        <v>40885</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>119th Copom Minutes</t>
+          <t>163rd Copom Minutes</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.04350631095811819</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.05479354953039164</v>
+        <v>0.0009746588693957114</v>
       </c>
       <c r="E79" t="n">
-        <v>0.002272727272727273</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.03202522115565594</v>
+        <v>0.01145473141064441</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01724007921710957</v>
+        <v>0.0001587301587301587</v>
       </c>
       <c r="H79" t="n">
-        <v>0.01800012850330388</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.008660042964554242</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.02061855670103093</v>
+        <v>0.006873531511842167</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>38925</v>
+        <v>40934</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>120th Copom Minutes</t>
+          <t>164th Copom Minutes</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.04380944730277569</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.08501367450053306</v>
+        <v>0.001418439716312057</v>
       </c>
       <c r="E80" t="n">
-        <v>0.03999915917957825</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.02469347781847782</v>
+        <v>0.009282614428341667</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01193793793098659</v>
+        <v>0.0003513941288312412</v>
       </c>
       <c r="H80" t="n">
-        <v>0.03215377782333145</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.04429985813680388</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.04082934609250399</v>
+        <v>0.00888292926506563</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>38968</v>
+        <v>40983</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>121st Copom Minutes</t>
+          <t>165th Copom Minutes</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.03514837747541867</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.06126672891378774</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="E81" t="n">
-        <v>0.00564468211527035</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0304393165103487</v>
+        <v>0.007449129896972696</v>
       </c>
       <c r="G81" t="n">
-        <v>0.006753084026847419</v>
+        <v>0.0001347708894878706</v>
       </c>
       <c r="H81" t="n">
-        <v>0.004145978152929494</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.004462630435934107</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.01687074829931973</v>
+        <v>0.008444667382602029</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>39016</v>
+        <v>41025</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>122th Copom Minutes</t>
+          <t>166th Copom Minutes</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.03553580562704771</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0499037999037999</v>
+        <v>0.002169584174800054</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003268641470888662</v>
+        <v>0.001724137931034483</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0273688575575368</v>
+        <v>0.006367348259230169</v>
       </c>
       <c r="G82" t="n">
-        <v>0.003861003861003861</v>
+        <v>0.0001324854266030737</v>
       </c>
       <c r="H82" t="n">
-        <v>0.001722652885443583</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.002917551809337989</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.01869158878504673</v>
+        <v>0.005295028479787646</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>39058</v>
+        <v>41068</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>123th Copom Minutes</t>
+          <t>167th Copom Minutes</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.02012549688936176</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.05034453057708872</v>
+        <v>0.004313430698739977</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001567398119122257</v>
+        <v>0.003575529367713035</v>
       </c>
       <c r="F83" t="n">
-        <v>0.02293265214317846</v>
+        <v>0.006394383686960077</v>
       </c>
       <c r="G83" t="n">
-        <v>0.003508771929824561</v>
+        <v>0.005201855420850585</v>
       </c>
       <c r="H83" t="n">
-        <v>0.00337856940910376</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.00169683257918552</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.01904761904761905</v>
+        <v>0.006359600443951166</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>39114</v>
+        <v>41109</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>124th Copom Minutes</t>
+          <t>168th Copom Minutes</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.02087418102946053</v>
+        <v>0.0168358462629296</v>
       </c>
       <c r="D84" t="n">
-        <v>0.04894179894179893</v>
+        <v>0.0117394994344051</v>
       </c>
       <c r="E84" t="n">
-        <v>0.00169683257918552</v>
+        <v>0.01190167833455918</v>
       </c>
       <c r="F84" t="n">
-        <v>0.02214649744927763</v>
+        <v>0.006853124463530849</v>
       </c>
       <c r="G84" t="n">
-        <v>0.002873563218390805</v>
+        <v>0.01042362043912424</v>
       </c>
       <c r="H84" t="n">
-        <v>0.01229560071154899</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.001831501831501832</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.006359600443951166</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>39156</v>
+        <v>41158</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>125th Copom Minutes</t>
+          <t>169th Copom Minutes</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.03083215506068104</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.04859442882698697</v>
+        <v>0.001290322580645161</v>
       </c>
       <c r="E85" t="n">
-        <v>0.004079254079254079</v>
+        <v>0.002404603205418581</v>
       </c>
       <c r="F85" t="n">
-        <v>0.02900051209197833</v>
+        <v>0.005113872775609731</v>
       </c>
       <c r="G85" t="n">
-        <v>0.004901960784313725</v>
+        <v>0.002180603612835537</v>
       </c>
       <c r="H85" t="n">
-        <v>0.01241193132101398</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.002442251502287888</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.01904761904761905</v>
+        <v>0.005317070447694541</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>39198</v>
+        <v>41200</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>126th Copom Minutes</t>
+          <t>170th Copom Minutes</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.03738045156809459</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.04985149985149986</v>
+        <v>0.001068376068376068</v>
       </c>
       <c r="E86" t="n">
-        <v>0.005079212607194565</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.02695909384288783</v>
+        <v>0.005582084980377308</v>
       </c>
       <c r="G86" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.001128124639576065</v>
       </c>
       <c r="H86" t="n">
-        <v>0.006583476764199656</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.003604465709728868</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.01869158878504673</v>
+        <v>0.005959274119984333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>39247</v>
+        <v>41249</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>127th Copom Minutes</t>
+          <t>171st Copom Minutes</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0389431709968047</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.04916325504560799</v>
+        <v>0.001620992110122545</v>
       </c>
       <c r="E87" t="n">
-        <v>0.01780823100631539</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.02140375216373078</v>
+        <v>0.006977864503427293</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01194058641975309</v>
+        <v>9.970089730807577e-05</v>
       </c>
       <c r="H87" t="n">
-        <v>0.05567571687574937</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.01214894508417239</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.005305997722032392</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>39289</v>
+        <v>41298</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>128th Copom Minutes</t>
+          <t>172nd Copom Minutes</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.03802417573378965</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0.05870742811041318</v>
+        <v>0.002460120524636654</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0153296880767811</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.02119756876574692</v>
+        <v>0.007986868090933522</v>
       </c>
       <c r="G88" t="n">
-        <v>0.007629205528365193</v>
+        <v>0.0001122586439155815</v>
       </c>
       <c r="H88" t="n">
-        <v>0.04750795444166718</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.04012786228160449</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.006367197266438871</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>39338</v>
+        <v>41347</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>129th Copom Minutes</t>
+          <t>173rd Copom Minutes</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.04716584433820802</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.04012268596407066</v>
+        <v>0.002116755793226381</v>
       </c>
       <c r="E89" t="n">
-        <v>0.006342932429888952</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.02341121069690697</v>
+        <v>0.007013839033298557</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>9.706853038245001e-05</v>
       </c>
       <c r="H89" t="n">
-        <v>0.009903808025378309</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.002883700650071349</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.01456310679611651</v>
+        <v>0.007414602557875992</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>39380</v>
+        <v>41389</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>130th Copom Minutes</t>
+          <t>174th Copom Minutes</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.04133916370564669</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.04021879021879022</v>
+        <v>0.001636982713462546</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0008741258741258741</v>
+        <v>0.004224137931034483</v>
       </c>
       <c r="F90" t="n">
-        <v>0.031489823451207</v>
+        <v>0.006348798090765961</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.000101347927434884</v>
       </c>
       <c r="H90" t="n">
-        <v>0.005967123154623155</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.001256308975202984</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.01774154220781842</v>
+        <v>0.00463330441363779</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>39429</v>
+        <v>41431</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>131st Copom Minutes</t>
+          <t>175th Copom Minutes</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.03084875825489009</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.04054520358868185</v>
+        <v>0.003559061560042273</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>0.001867413632119514</v>
       </c>
       <c r="F91" t="n">
-        <v>0.03600825740343149</v>
+        <v>0.008483733994518074</v>
       </c>
       <c r="G91" t="n">
-        <v>0.003574950690335306</v>
+        <v>0.005781497267516475</v>
       </c>
       <c r="H91" t="n">
-        <v>0.003941299790356395</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.00157388777107087</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.03113487819370172</v>
+        <v>0.002347417840375587</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>39478</v>
+        <v>41473</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>132nd Copom Minutes</t>
+          <t>176th Copom Minutes</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.03047241843419702</v>
+        <v>0.01579259610821072</v>
       </c>
       <c r="D92" t="n">
-        <v>0.04034391534391534</v>
+        <v>0.01517267164859409</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004412857673727239</v>
+        <v>0.01007336237615867</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0324105941811753</v>
+        <v>0.01010934693034876</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>0.01034287320048777</v>
       </c>
       <c r="H92" t="n">
-        <v>0.002702702702702703</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.01769911504424779</v>
+        <v>0.002314814814814815</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>39520</v>
+        <v>41522</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>133rd Copom Minutes</t>
+          <t>177th Copom Minutes</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.03158722812145521</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.04028049575994781</v>
+        <v>0.002499871837742321</v>
       </c>
       <c r="E93" t="n">
-        <v>0.006052631578947369</v>
+        <v>0.0007246376811594203</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03759828359468748</v>
+        <v>0.008347781261123583</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>0.002138552078575572</v>
       </c>
       <c r="H93" t="n">
-        <v>0.006613913781483238</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.01574803149606299</v>
+        <v>0.002314814814814815</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>39562</v>
+        <v>41564</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>134th Copom Minutes</t>
+          <t>178th Copom Minutes</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.02462484118847509</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0.03998778998778998</v>
+        <v>0.002507872199878609</v>
       </c>
       <c r="E94" t="n">
-        <v>0.01221581403111215</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.03802106349822244</v>
+        <v>0.008788978217031026</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>0.001474460894406592</v>
       </c>
       <c r="H94" t="n">
-        <v>0.003837535014005603</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.003496503496503497</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.016</v>
+        <v>0.002325581395348837</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>39611</v>
+        <v>41613</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>135th Copom Minutes</t>
+          <t>179th Copom Minutes</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.03286220206917848</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.03930712858094603</v>
+        <v>0.001785232311548101</v>
       </c>
       <c r="E95" t="n">
-        <v>0.01185297279136684</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02857952151716788</v>
+        <v>0.009856145891100019</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02505457505457505</v>
+        <v>0.0001031991744066047</v>
       </c>
       <c r="H95" t="n">
-        <v>0.04880830936300946</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.004649544534412955</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.03079264723100339</v>
+        <v>0.002777777777777777</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>39660</v>
+        <v>41662</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>136th Copom Minutes</t>
+          <t>180th Copom Minutes</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.03935253951161872</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.04927760577915376</v>
+        <v>0.001408450704225352</v>
       </c>
       <c r="E96" t="n">
-        <v>0.03650460134761215</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02495734471140935</v>
+        <v>0.008977633068719277</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02438143735111393</v>
+        <v>0.0002600161136746503</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0422656157402958</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.03884938330166855</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.03324561403508772</v>
+        <v>0.002777777777777777</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>39709</v>
+        <v>41704</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>137th Copom Minutes</t>
+          <t>181st Copom Minutes</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.02871777426212837</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.05028485191473307</v>
+        <v>0.001322751322751323</v>
       </c>
       <c r="E97" t="n">
-        <v>0.01010551784431501</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.02856844991898798</v>
+        <v>0.009077040148503681</v>
       </c>
       <c r="G97" t="n">
-        <v>0.002040816326530612</v>
+        <v>0.001081774844151082</v>
       </c>
       <c r="H97" t="n">
-        <v>0.002662271805273833</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.004189073083548727</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.0298898386750137</v>
+        <v>0.002777777777777777</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>39758</v>
+        <v>41739</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>138th Copom Minutes</t>
+          <t>182nd Copom Minutes</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.03083319275616056</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0485797827903091</v>
+        <v>0.001265822784810127</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001303237048851084</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="F98" t="n">
-        <v>0.04820522216201312</v>
+        <v>0.008424968571175558</v>
       </c>
       <c r="G98" t="n">
-        <v>0.001785714285714286</v>
+        <v>0.000976861783634692</v>
       </c>
       <c r="H98" t="n">
-        <v>0.007302156606913244</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.001773049645390071</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.01904761904761905</v>
+        <v>0.006313131313131313</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>39800</v>
+        <v>41795</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>139th Copom Minutes</t>
+          <t>183rd Copom Minutes</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.02763098418321688</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.04938035495716034</v>
+        <v>0.001081081081081081</v>
       </c>
       <c r="E99" t="n">
-        <v>0.005380358566990067</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.048275708014026</v>
+        <v>0.009134328254644873</v>
       </c>
       <c r="G99" t="n">
-        <v>0.003381585192216421</v>
+        <v>0.004143597904899141</v>
       </c>
       <c r="H99" t="n">
-        <v>0.01201912842502205</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.000591715976331361</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.01652892561983471</v>
+        <v>0.00387012987012987</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>39842</v>
+        <v>41844</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>140th Copom Minutes</t>
+          <t>184th Copom Minutes</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.02896862498303333</v>
+        <v>0.00967741935483871</v>
       </c>
       <c r="D100" t="n">
-        <v>0.05593387054061211</v>
+        <v>0.00625</v>
       </c>
       <c r="E100" t="n">
-        <v>0.00412531328320802</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="F100" t="n">
-        <v>0.02140465715039288</v>
+        <v>0.01049591693759622</v>
       </c>
       <c r="G100" t="n">
-        <v>0.003538359788359788</v>
+        <v>0.01189069187414571</v>
       </c>
       <c r="H100" t="n">
-        <v>0.003304297474887339</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.00197172619047619</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.01169590643274854</v>
+        <v>0.005764226231783483</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>39891</v>
+        <v>41893</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>141st Copom Minutes</t>
+          <t>185th Copom Minutes</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.02961303742535985</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.03925438596491228</v>
+        <v>0.001212121212121212</v>
       </c>
       <c r="E101" t="n">
-        <v>0.00125</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.01964992187805178</v>
+        <v>0.0109199094906192</v>
       </c>
       <c r="G101" t="n">
-        <v>0.00308641975308642</v>
+        <v>0.001759442128105723</v>
       </c>
       <c r="H101" t="n">
-        <v>0.005173904896435418</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.0003633720930232558</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.01500677506775068</v>
+        <v>0.004518078869254863</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>39940</v>
+        <v>41949</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>142nd Copom Minutes</t>
+          <t>186th Copom Minutes</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.02436824449072507</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.03179384203480589</v>
+        <v>0.001</v>
       </c>
       <c r="E102" t="n">
-        <v>0.002941583610188261</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.01865127179533235</v>
+        <v>0.0117964619302717</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>0.001131072874493927</v>
       </c>
       <c r="H102" t="n">
-        <v>0.004438134418459062</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.0005379236148466917</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.008771929824561403</v>
+        <v>0.00228310502283105</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>39982</v>
+        <v>41984</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>143rd Copom Minutes</t>
+          <t>187th Copom Minutes</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.02690304489179302</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.03315217391304347</v>
+        <v>0.001</v>
       </c>
       <c r="E103" t="n">
-        <v>0.02134487194059276</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.01855048525218395</v>
+        <v>0.0115555582279325</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02459415584415585</v>
+        <v>0.001032218442932729</v>
       </c>
       <c r="H103" t="n">
-        <v>0.06369141623197042</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.01542804562256969</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.01179941002949852</v>
+        <v>0.00387012987012987</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>40024</v>
+        <v>42033</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>144th Copom Minutes</t>
+          <t>188th Copom Minutes</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.0286637784043309</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.025</v>
+        <v>0.002199482474711832</v>
       </c>
       <c r="E104" t="n">
-        <v>0.05676291251046303</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.02216398916642238</v>
+        <v>0.01022739658412279</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01487008352769333</v>
+        <v>0.001204648526077098</v>
       </c>
       <c r="H104" t="n">
-        <v>0.03755178292536389</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.02992831231258908</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.008849557522123894</v>
+        <v>0.003902516725071679</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>40066</v>
+        <v>42075</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>145th Copom Minutes</t>
+          <t>189th Copom Minutes</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.02751387754896602</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0255281690140845</v>
+        <v>0.002229289716795396</v>
       </c>
       <c r="E105" t="n">
-        <v>0.005951021443979191</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.01895433837359846</v>
+        <v>0.01019849014679702</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>0.00116296518607443</v>
       </c>
       <c r="H105" t="n">
-        <v>0.01008163470926481</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.007324200342103155</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.01239614489863742</v>
+        <v>0.004018116362791778</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>40115</v>
+        <v>42131</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>146th Copom Minutes</t>
+          <t>190th Copom Minutes</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.03145180642698047</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0.02533783783783784</v>
+        <v>0.002534183407514335</v>
       </c>
       <c r="E106" t="n">
-        <v>0.004678126442085833</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.01992969454676467</v>
+        <v>0.008406705796221296</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>0.00112907481833313</v>
       </c>
       <c r="H106" t="n">
-        <v>0.004653213166144201</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.004913427359247793</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.01859267734553776</v>
+        <v>0.003969508752117447</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>40164</v>
+        <v>42166</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>147th Copom Minutes</t>
+          <t>191st Copom Minutes</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.03128434295333705</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0.02850435949027498</v>
+        <v>0.002700490998363339</v>
       </c>
       <c r="E107" t="n">
-        <v>0.004163628936768683</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="F107" t="n">
-        <v>0.01941262410073839</v>
+        <v>0.01100072724768712</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>0.004643825345633936</v>
       </c>
       <c r="H107" t="n">
-        <v>0.022027894929626</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.01209677419354839</v>
+        <v>0.003890063424947146</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>40213</v>
+        <v>42222</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>148th Copom Minutes</t>
+          <t>192nd Copom Minutes</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.0310064219931228</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="D108" t="n">
-        <v>0.02717171717171717</v>
+        <v>0.002597840755735493</v>
       </c>
       <c r="E108" t="n">
-        <v>0.004198966408268733</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.02192521327933201</v>
+        <v>0.01117794277495926</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>0.01352049738233876</v>
       </c>
       <c r="H108" t="n">
-        <v>0.005465404552625648</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.006666666666666667</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0.01030927835051546</v>
+        <v>0.003819904502387441</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>40262</v>
+        <v>42257</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>149th Copom Minutes</t>
+          <t>193rd Copom Minutes</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.0354639266234134</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.02717171717171717</v>
+        <v>0.002502923976608187</v>
       </c>
       <c r="E109" t="n">
-        <v>0.004490563084578726</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.01995773408980956</v>
+        <v>0.01048479478374439</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>0.0009765374039524066</v>
       </c>
       <c r="H109" t="n">
-        <v>0.007351545093480577</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0.01553086089168564</v>
+        <v>0.005101955784438722</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>40304</v>
+        <v>42306</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>150th Copom Minutes</t>
+          <t>194th Copom Minutes</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.03250178696441305</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0.02058916693063035</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0.002969093915403425</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>0.02254050925925926</v>
+        <v>0.009987451830400604</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>0.001098604579446457</v>
       </c>
       <c r="H110" t="n">
-        <v>0.007337153594499361</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.0009803921568627451</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.01986849628359062</v>
+        <v>0.003941925991727507</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>40346</v>
+        <v>42341</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>151st Copom Minutes</t>
+          <t>195th Copom Minutes</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.04623741244642973</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0.02070460704607046</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.03181621009059361</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.02272487099253404</v>
+        <v>0.008505362278213156</v>
       </c>
       <c r="G111" t="n">
-        <v>0.01880481537344282</v>
+        <v>0.001098604579446457</v>
       </c>
       <c r="H111" t="n">
-        <v>0.06133185823944671</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.01679186371078502</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.0318758344459279</v>
+        <v>0.00358519476166535</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>40388</v>
+        <v>42397</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>152nd Copom Minutes</t>
+          <t>196th Copom Minutes</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.03882729471473912</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01926316560462902</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0.03178856522226881</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.02848897891342713</v>
+        <v>0.008219987010365587</v>
       </c>
       <c r="G112" t="n">
-        <v>0.01816828703369304</v>
+        <v>0.0005252100840336134</v>
       </c>
       <c r="H112" t="n">
-        <v>0.02905793401414855</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.03465014395750397</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.02647058823529412</v>
+        <v>0.002232142857142857</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>40430</v>
+        <v>42439</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>153rd Copom Minutes</t>
+          <t>197th Copom Minutes</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.02920761079957335</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0.01980626189240616</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.005368589743589744</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.02546754102157659</v>
+        <v>0.008314677667404157</v>
       </c>
       <c r="G113" t="n">
-        <v>0.002849002849002849</v>
+        <v>0.0005252100840336134</v>
       </c>
       <c r="H113" t="n">
-        <v>0.007314059797380776</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.005906898478352061</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.002232142857142857</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>40479</v>
+        <v>42495</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>154th Copom Minutes</t>
+          <t>198th Copom Minutes</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.02969701467596008</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.02047957188432644</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.002563315063315063</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.02769371016640133</v>
+        <v>0.008073560498033936</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>0.0005411255411255411</v>
       </c>
       <c r="H114" t="n">
-        <v>0.00773596661481596</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.00564993564993565</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.009478228228228228</v>
+        <v>0.002678571428571429</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>40528</v>
+        <v>42537</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>155th Copom Minutes</t>
+          <t>199th Copom Minutes</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.03198336188548376</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0122093023255814</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="F115" t="n">
-        <v>0.02805353881406051</v>
+        <v>0.009633315748342357</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>0.0158754754490553</v>
       </c>
       <c r="H115" t="n">
-        <v>0.004381289865343728</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.003880294850498339</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.006632961714631406</v>
+        <v>0.002666666666666667</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>40570</v>
+        <v>42577</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>156th Copom Minutes</t>
+          <t>200th Copom Minutes</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.02914922135514646</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0.02173786181139122</v>
+        <v>0.01191151446398185</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.02395197395197395</v>
+        <v>0.01957854406130268</v>
       </c>
       <c r="G116" t="n">
-        <v>0.004545454545454545</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>0.006194954470816539</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.003174603174603175</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.007536606373815676</v>
+        <v>0.01636600648239213</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>40612</v>
+        <v>42619</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>157th Copom Minutes</t>
+          <t>201st Copom Minutes</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.03277378842341819</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01853397486252946</v>
+        <v>0.01052491811985483</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.02682935271720318</v>
+        <v>0.02591253097582212</v>
       </c>
       <c r="G117" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>0.003769215226075198</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.001475961029333898</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.004347826086956522</v>
+        <v>0.01699866967484772</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>40661</v>
+        <v>42668</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>158th Copom Minutes</t>
+          <t>202nd Copom Minutes</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.02744321326099879</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0.01299133910726182</v>
+        <v>0.01656632431768769</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.03690077087599638</v>
+        <v>0.03611111111111111</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>0.003348939478325443</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.002091923356779044</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.005602240896358543</v>
+        <v>0.01483795623515359</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>40710</v>
+        <v>42710</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>159th Copom Minutes</t>
+          <t>203rd Copom Minutes</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.03869319252544687</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0.01205164992826399</v>
+        <v>0.01812060889929742</v>
       </c>
       <c r="E119" t="n">
-        <v>0.006333215506068105</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.03085401743572658</v>
+        <v>0.0341821054133955</v>
       </c>
       <c r="G119" t="n">
-        <v>0.01279787381482297</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>0.06257228595446995</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.02140941612565879</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.00819672131147541</v>
+        <v>0.01840189114001285</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>40752</v>
+        <v>42752</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>160th Copom Minutes</t>
+          <t>204th Copom Minutes</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.02976410434156326</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01183801505197715</v>
+        <v>0.028003003003003</v>
       </c>
       <c r="E120" t="n">
-        <v>0.04372685185185185</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.03465836526181354</v>
+        <v>0.02900045223988886</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02098622775605367</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>0.04916539123269893</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.04257722439787285</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.005012531328320802</v>
+        <v>0.01480881105943035</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>40794</v>
+        <v>42796</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>161st Copom Minutes</t>
+          <t>205th Copom Minutes</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.03044293316085472</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.01366341991341991</v>
+        <v>0.01694528875379939</v>
       </c>
       <c r="E121" t="n">
-        <v>0.01494107744107744</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.03530635156052286</v>
+        <v>0.02240314769975787</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>0.01282077408890088</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.01151955649085133</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.005089058524173028</v>
+        <v>0.02864254111204394</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>40843</v>
+        <v>42843</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>162nd Copom Minutes</t>
+          <t>206th Copom Minutes</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.02698388212690893</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="E122" t="n">
-        <v>0.009305371352785146</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0305038579085766</v>
+        <v>0.02711361737677527</v>
       </c>
       <c r="G122" t="n">
-        <v>0.002222222222222222</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.002624847069291514</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.007860943386057541</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.005249343832020997</v>
+        <v>0.02758743617333376</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>40885</v>
+        <v>42892</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>163rd Copom Minutes</t>
+          <t>207th Copom Minutes</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.02973566431893607</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.01370614035087719</v>
+        <v>0.002415458937198068</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0305038579085766</v>
+        <v>0.03253859348198971</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>0.001025641025641026</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.003424657534246575</v>
+        <v>0.02836768153067573</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>40934</v>
+        <v>42948</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>164th Copom Minutes</t>
+          <t>208th Copom Minutes</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.03124122457572052</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.02146577380952381</v>
+        <v>0.001798561151079137</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.02445189945189945</v>
+        <v>0.02679132120502345</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0006944444444444445</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.004854368932038835</v>
+        <v>0.02579200155542495</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>40983</v>
+        <v>42990</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>165th Copom Minutes</t>
+          <t>209th Copom Minutes</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.03041155798977646</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.03365546218487395</v>
+        <v>0.002252252252252252</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.01712589212589213</v>
+        <v>0.009523809523809523</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>0.000784313725490196</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.001523809523809524</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.006535947712418301</v>
+        <v>0.0214357352537093</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>41025</v>
+        <v>43039</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>166th Copom Minutes</t>
+          <t>210 Copom Minutes</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.02747902934300575</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.01581932773109244</v>
+        <v>0.01044932079414838</v>
       </c>
       <c r="E126" t="n">
-        <v>0.001146788990825688</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0360711843612787</v>
+        <v>0.008359320859320859</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0007575757575757576</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.001792114695340502</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.01691887347625053</v>
+        <v>0.01434178196456533</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>41068</v>
+        <v>43081</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>167th Copom Minutes</t>
+          <t>211th Copom Minutes</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.02792603217584963</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0114975845410628</v>
+        <v>0.01044932079414838</v>
       </c>
       <c r="E127" t="n">
-        <v>0.009736319505736982</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.02903065403065403</v>
+        <v>0.008223684210526315</v>
       </c>
       <c r="G127" t="n">
-        <v>0.01056311413454271</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>0.02764380172792821</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.002801992528019925</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.01207848281138985</v>
+        <v>0.01462466326563897</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>41109</v>
+        <v>43146</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>168th Copom Minutes</t>
+          <t>212th Copom Minutes</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.02898730035854071</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.01871209188282359</v>
+        <v>0.02048813255709808</v>
       </c>
       <c r="E128" t="n">
-        <v>0.03346751784251784</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0288740444990445</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0364964710398147</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>0.028445345977549</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.02765693893899869</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.0265787886620143</v>
+        <v>0.01509116847581685</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>41158</v>
+        <v>43186</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>169th Copom Minutes</t>
+          <t>213th Copom Minutes</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.02258476662426684</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0.01337792642140468</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="E129" t="n">
-        <v>0.002049180327868853</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.01668714168714169</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="G129" t="n">
-        <v>0.004726301735647529</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>0.003199023199023199</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.01090647181529282</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.005882352941176471</v>
+        <v>0.01402280402674968</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>41200</v>
+        <v>43242</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>170th Copom Minutes</t>
+          <t>214th Copom Minutes</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.02253422519316401</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01370384468976018</v>
+        <v>0.004541363227231815</v>
       </c>
       <c r="E130" t="n">
-        <v>0.005238095238095238</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.03338138035506456</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>0.0005530973451327434</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.00456567678789901</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.01904761904761905</v>
+        <v>0.01543050088355017</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>41249</v>
+        <v>43277</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>171st Copom Minutes</t>
+          <t>215th Copom Minutes</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.02632784719150414</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.01367389060887513</v>
+        <v>0.003115264797507788</v>
       </c>
       <c r="E131" t="n">
-        <v>0.00119047619047619</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.02577805077805078</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0005847953216374269</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.001342281879194631</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.01371635610766045</v>
+        <v>0.01688118431747064</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>41298</v>
+        <v>43319</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>172nd Copom Minutes</t>
+          <t>216th Copom Minutes</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.03005230347577748</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.01888888888888889</v>
+        <v>0.003144654088050314</v>
       </c>
       <c r="E132" t="n">
-        <v>0.001096491228070175</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0223380967866262</v>
+        <v>0.02155378214310074</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0006734006734006734</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.0005208333333333333</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.007731958762886598</v>
+        <v>0.0142928355656646</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>41347</v>
+        <v>43368</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>173rd Copom Minutes</t>
+          <t>217th Copom Minutes</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.03037081914231722</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>0.01846153846153846</v>
+        <v>0.003058103975535168</v>
       </c>
       <c r="E133" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.009009009009009009</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0005509641873278238</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.001132876614572183</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.01640846243544894</v>
+        <v>0.0141426578600337</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>41389</v>
+        <v>43410</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>174th Copom Minutes</t>
+          <t>218th Copom Minutes</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.02239756702996718</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>0.01097705696202532</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0009765625</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.02824883707236649</v>
+        <v>0.01864879955332217</v>
       </c>
       <c r="G134" t="n">
-        <v>0.005847953216374269</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0005165289256198347</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.0009103322712790169</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.01632425545469024</v>
+        <v>0.0118007087660038</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>41431</v>
+        <v>43452</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>175th Copom Minutes</t>
+          <t>219th Copom Minutes</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.02740407007046739</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01511150234741784</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="E135" t="n">
-        <v>0.002915451895043732</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.01982751982751983</v>
+        <v>0.02430906639703404</v>
       </c>
       <c r="G135" t="n">
-        <v>0.004950495049504951</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>0.04039621999367705</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.001515567765567766</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.01961352657004831</v>
+        <v>0.01783532402496783</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>41473</v>
+        <v>43508</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>176th Copom Minutes</t>
+          <t>220th Copom Minutes</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.03030590201093232</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01731601731601732</v>
+        <v>0.005899705014749262</v>
       </c>
       <c r="E136" t="n">
-        <v>0.04780661065987153</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.01262019230769231</v>
+        <v>0.002873563218390805</v>
       </c>
       <c r="G136" t="n">
-        <v>0.03511356862871116</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>0.03252193318514104</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.01929884709482624</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.02792553191489362</v>
+        <v>0.01308599514576885</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>41522</v>
+        <v>43550</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>177th Copom Minutes</t>
+          <t>221th Copom Minutes</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.02910959016229828</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>0.00392156862745098</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="E137" t="n">
-        <v>0.001058201058201058</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.01262019230769231</v>
+        <v>0.005846612403989453</v>
       </c>
       <c r="G137" t="n">
-        <v>0.00339080459770115</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>0.005733764215122794</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.008556647517764167</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.007751937984496124</v>
+        <v>0.01551216585838236</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>41564</v>
+        <v>43599</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>178th Copom Minutes</t>
+          <t>222nd Copom Minutes</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.02579710962777581</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0123015873015873</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0009587727708533077</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.01310118788932348</v>
+        <v>0.02774351096931742</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0006116207951070337</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.007376430539373391</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.007936507936507936</v>
+        <v>0.0164078497538505</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>41613</v>
+        <v>43641</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>179th Copom Minutes</t>
+          <t>223rd Copom Minutes</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.02839551021356331</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>0.01225490196078431</v>
+        <v>0.006230529595015576</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.01330952244617499</v>
+        <v>0.01642468642468643</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>0.0006060606060606061</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.001407129455909944</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.008669772256728778</v>
+        <v>0.02093315360876658</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>41662</v>
+        <v>43683</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>180th Copom Minutes</t>
+          <t>224th Copom Minutes</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.02238111592691178</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>0.01623931623931624</v>
+        <v>0.01345406957109085</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.01529584095373569</v>
+        <v>0.02878282494985077</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>0.001769549306625578</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.00121046552949538</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.007662835249042145</v>
+        <v>0.01701989818446691</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>41704</v>
+        <v>43732</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>181st Copom Minutes</t>
+          <t>225th Copom Minutes</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.02677185003473903</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>0.01481481481481482</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.01517052767052767</v>
+        <v>0.02262700861487673</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>0.007995165713754474</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.008928571428571428</v>
+        <v>0.0160871465215481</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>41739</v>
+        <v>43774</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>182nd Copom Minutes</t>
+          <t>226th Copom Minutes</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.02902843036713982</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>0.01567732115677321</v>
+        <v>0.005854700854700854</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.02908105154164749</v>
+        <v>0.0152883438694619</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>0.007940930621342992</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.04216524216524217</v>
+        <v>0.01496687253025693</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>41795</v>
+        <v>43816</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>183rd Copom Minutes</t>
+          <t>227th Copom Minutes</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.03183662924182819</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>0.01322751322751323</v>
+        <v>0.007249336328364305</v>
       </c>
       <c r="E143" t="n">
-        <v>0.005952380952380952</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.01628489326765189</v>
+        <v>0.01045528898582334</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0161151199243169</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.003623188405797101</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.04208754208754208</v>
+        <v>0.01729336043360434</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>41844</v>
+        <v>43872</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>184th Copom Minutes</t>
+          <t>228th Copom Minutes</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.03663320754204513</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>0.02295788939624556</v>
+        <v>0.004065040650406504</v>
       </c>
       <c r="E144" t="n">
-        <v>0.02957536290869624</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.01988406168971478</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="G144" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>0.02942172264355363</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.02980510752688172</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.05152979066022544</v>
+        <v>0.01356454129552584</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>41893</v>
+        <v>43913</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>185th Copom Minutes</t>
+          <t>229th Copom Minutes</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.03720827075308132</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0.01382546930492136</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.01642857142857143</v>
+        <v>0.0136152162014231</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>0.008167057902973396</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.00390625</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.04160324708269914</v>
+        <v>0.02337260719428071</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>41949</v>
+        <v>43963</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>186th Copom Minutes</t>
+          <t>230th Copom Minutes</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.04131498246784417</v>
+        <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>0.01292226292226292</v>
+        <v>0.002941176470588235</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.01708447802197802</v>
+        <v>0.008650793650793652</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>0.008167057902973396</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0.04216524216524217</v>
+        <v>0.03195871333632121</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>41984</v>
+        <v>44005</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>187th Copom Minutes</t>
+          <t>231st Copom Minutes</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.04107556741100768</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>0.01292226292226292</v>
+        <v>0.002906976744186046</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.02023748723186925</v>
+        <v>0.02170944090023038</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0119239191949017</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0.0417989417989418</v>
+        <v>0.0303167173864874</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>42033</v>
+        <v>44054</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>188th Copom Minutes</t>
+          <t>232nd Meeting – August 4-5, 2020</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.03883737548773702</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>0.01659959758551308</v>
+        <v>0.002427184466019417</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.02011417238421956</v>
+        <v>0.02711851355043843</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>0.01304538227288652</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0.04074074074074074</v>
+        <v>0.0235896236256971</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>42075</v>
+        <v>44096</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>189th Copom Minutes</t>
+          <t>233rd Meeting - September 15-16, 2020</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.03845966194278447</v>
+        <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>0.01680672268907563</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.01814316635745207</v>
+        <v>0.04105262880872411</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>0.008377017165176278</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0.04082491582491583</v>
+        <v>0.02505282703596238</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>42131</v>
+        <v>44138</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>190th Copom Minutes</t>
+          <t>234th Meeting - October 27-28, 2020</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.03963751638059601</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>0.004629629629629629</v>
+        <v>0.002873563218390805</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.01611394557823129</v>
+        <v>0.03474945533769063</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>0.007819603564284414</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0.04250151791135397</v>
+        <v>0.02097370103338</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>42166</v>
+        <v>44180</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>191st Copom Minutes</t>
+          <t>235th Meeting - December 8-9, 2020</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.04231767263579719</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.002898550724637681</v>
       </c>
       <c r="E151" t="n">
-        <v>0.006535947712418301</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.02092935488802263</v>
+        <v>0.02027477369222142</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0392156862745098</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>0.01244365004163436</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0.007634032634032634</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0.04278416347381864</v>
+        <v>0.01867166362211673</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>42222</v>
+        <v>44222</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>192nd Copom Minutes</t>
+          <t>236th Meeting - January 19-20, 2021</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.04178303366586476</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.005</v>
       </c>
       <c r="E152" t="n">
-        <v>0.02848826440157709</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.02581168831168831</v>
+        <v>0.01610680622979569</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>0.01564443455984712</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0.0464017464017464</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0.04241338112305854</v>
+        <v>0.01790544199825053</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>42257</v>
+        <v>44278</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>193rd Copom Minutes</t>
+          <t>237th Meeting - March 16-17, 2021</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.04090520470443455</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>0.01612417118746233</v>
+        <v>0.005</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.02850672877846791</v>
+        <v>0.02664797143134911</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>0.007514353259034111</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0.04232804232804233</v>
+        <v>0.01633168764666579</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>42306</v>
+        <v>44327</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>194th Copom Minutes</t>
+          <t>238th Meeting - May 4-5, 2021</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.03971810858026597</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.02789146170514237</v>
+        <v>0.01662199084559333</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>0.007514353259034111</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.01325020137383865</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>42341</v>
+        <v>44369</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>195th Copom Minutes</t>
+          <t>239th Meeting - June 15-16, 2021</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.03851074788539413</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>0.01075268817204301</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0298169214522598</v>
+        <v>0.01441241685144124</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>0.007514353259034111</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.01734570831878827</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>42397</v>
+        <v>44418</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>196th Copom Minutes</t>
+          <t>240th Meeting - August 3-4, 2021</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.04417937479119206</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>0.01075268817204301</v>
+        <v>0.003745318352059925</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.02692800272687491</v>
+        <v>0.01550925925925926</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>0.003546099290780142</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.01912296552357885</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>42439</v>
+        <v>44467</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>197th Copom Minutes</t>
+          <t>241st Meeting - September 21-22, 2021</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.03966556196785371</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>0.01075268817204301</v>
+        <v>0.00364963503649635</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.02614972242411491</v>
+        <v>0.009647147147147147</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="H157" t="n">
-        <v>0.003546099290780142</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.01865332660899788</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>42495</v>
+        <v>44503</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>198th Copom Minutes</t>
+          <t>242nd Meeting - October 26-27, 2021</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.04085910618567096</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>0.007407407407407408</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.02257258388587502</v>
+        <v>0.008333333333333335</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>0.002840909090909091</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.02318530958399926</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>42537</v>
+        <v>44544</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>199th Copom Minutes</t>
+          <t>243rd Meeting - December 7-8, 2021</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.04445403807957813</v>
+        <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>0.008333333333333333</v>
+        <v>0.00326797385620915</v>
       </c>
       <c r="E159" t="n">
-        <v>0.03257761437908497</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.02558210784313726</v>
+        <v>0.0201903743395051</v>
       </c>
       <c r="G159" t="n">
-        <v>0.03448275862068965</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>0.05904545146879654</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0.007196815026541445</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.02516479947473809</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>42577</v>
+        <v>44600</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>200th Copom Minutes</t>
+          <t>244th Meeting - February 1-2, 2022</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.0347655011731401</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>0.0459830866807611</v>
+        <v>0.002808988764044944</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.054671195027412</v>
+        <v>0.01920366455250176</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>0.04403794037940379</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0</v>
+        <v>0.01930812604491258</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>42619</v>
+        <v>44642</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>201st Copom Minutes</t>
+          <t>245th Meeting - March 15-16, 2022</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.05745353153751997</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>0.06211317418213969</v>
+        <v>0.02885900062349693</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.03665547956771361</v>
+        <v>0.01747766067132547</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0</v>
+        <v>0.02162406806131538</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>42668</v>
+        <v>44691</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>202nd Copom Minutes</t>
+          <t>246th Meeting - May 3-4, 2022</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.0594770656800732</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>0.04404223227752639</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.04027500097364037</v>
+        <v>0.01700513538748833</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>0.08620689655172414</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0</v>
+        <v>0.01966832108019472</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>42710</v>
+        <v>44733</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>203rd Copom Minutes</t>
+          <t>247th Meeting - June 14-15, 2022</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.06548413321687539</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0.05649296939619521</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.04208538471897532</v>
+        <v>0.01229849592973587</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0</v>
+        <v>0.02281786899166384</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>42752</v>
+        <v>44782</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>204th Copom Minutes</t>
+          <t>248th Meeting - August 2-3, 2022</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.06563879380084273</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>0.06469126111983255</v>
+        <v>0.01663652802893309</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.02478788981437147</v>
+        <v>0.02411114381278737</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>0</v>
+        <v>0.01604641121587291</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>42796</v>
+        <v>44831</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>205th Copom Minutes</t>
+          <t>249th Meeting - September 20-21, 2022</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.07816142191142192</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>0.03999999999999999</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.05358874776362654</v>
+        <v>0.01684205280095691</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>0</v>
+        <v>0.01556378100085931</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>42843</v>
+        <v>44866</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>206th Copom Minutes</t>
+          <t>250th Meeting - October 25-26, 2022</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.07327911838690114</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>0.05418894830659536</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.04487987740984704</v>
+        <v>0.0106933797566709</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0</v>
+        <v>0.01337881644006472</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>42892</v>
+        <v>44908</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>207th Copom Minutes</t>
+          <t>251st Meeting - December 6-7, 2022</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.0603021978021978</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>0.05462436868686869</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.06814258345802687</v>
+        <v>0.009519748544138788</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>0</v>
+        <v>0.01175226687957701</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>42948</v>
+        <v>44964</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>208th Copom Minutes</t>
+          <t>252nd Meeting - January 31 - February 1, 2023</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.05879529726709605</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>0.06094102618692783</v>
+        <v>0.0125</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.06276900328501983</v>
+        <v>0.0107542624928787</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>0</v>
+        <v>0.008484551449201547</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>42990</v>
+        <v>45013</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>209th Copom Minutes</t>
+          <t>253rd Meeting - March 21-22, 2023</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.01850267379679144</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>0.05531400966183575</v>
+        <v>0.008129699248120301</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.05239164155122605</v>
+        <v>0.006850304888794896</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>0</v>
+        <v>0.01106127942665859</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43039</v>
+        <v>45055</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>210 Copom Minutes</t>
+          <t>254th Meeting - May 2-3, 2023</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.008838383838383838</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>0.05189255189255189</v>
+        <v>0.0125</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.04912824020037591</v>
+        <v>0.0130686517783292</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0</v>
+        <v>0.008649726097515667</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43081</v>
+        <v>45104</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>211th Copom Minutes</t>
+          <t>255th Meeting - June 20-21, 2023</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.01063218390804598</v>
+        <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>0.05546398046398047</v>
+        <v>0.0125</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.04536878738487299</v>
+        <v>0.01325034499263046</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>0</v>
+        <v>0.007516194399042248</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43146</v>
+        <v>45146</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>212th Copom Minutes</t>
+          <t>256th Meeting - August 1-2, 2023</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.02492997198879552</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1175824175824176</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.04203936975275084</v>
+        <v>0.009701125539023595</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>0.03846153846153846</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>0</v>
+        <v>0.008050083424229731</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43186</v>
+        <v>45195</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>213th Copom Minutes</t>
+          <t>257th Meeting - September 19-20, 2023</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.02428571428571429</v>
+        <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>0.0868785975928833</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.04114057691443605</v>
+        <v>0.006927474937343359</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0</v>
+        <v>0.009104483581173356</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43242</v>
+        <v>45237</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>214th Copom Minutes</t>
+          <t>258th Meeting - October 31 - November 1, 2023</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.03203781512605042</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>0.03823127392017496</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.04972698508765567</v>
+        <v>0.005228124073624923</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0</v>
+        <v>0.01109700879816374</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43277</v>
+        <v>45279</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>215th Copom Minutes</t>
+          <t>259th Meeting - December 12-13, 2023</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.05975833109979451</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>0.0390625</v>
+        <v>0.015625</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.04719168851571359</v>
+        <v>0.008876034552565649</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0</v>
+        <v>0.00553909474572181</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43319</v>
+        <v>45328</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>216th Copom Minutes</t>
+          <t>260th Meeting - January 30-31, 2024</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.0336405529953917</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>0.03882575757575758</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.04667820698271216</v>
+        <v>0.005748197862291821</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0</v>
+        <v>0.006794395883165246</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43368</v>
+        <v>45377</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>217th Copom Minutes</t>
+          <t>261st Meeting - March 19-20, 2024</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.03960047003525265</v>
+        <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>0.0390625</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0449143156719598</v>
+        <v>0.008425933912176796</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0</v>
+        <v>0.0101759099564003</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43410</v>
+        <v>45426</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>218th Copom Minutes</t>
+          <t>262nd Meeting - May 7-8, 2024</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.05425824175824176</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>0.01428571428571429</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0478229866068212</v>
+        <v>0.00273972602739726</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0</v>
+        <v>0.009937519139454384</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43452</v>
+        <v>45468</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>219th Copom Minutes</t>
+          <t>263rd Meeting - June 18-19, 2024</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.0601984126984127</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.05229460098019036</v>
+        <v>0.007324178994002329</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>0</v>
+        <v>0.007055648432550181</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43508</v>
+        <v>45510</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>220th Copom Minutes</t>
+          <t>264th Meeting - July 30-31, 2024</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.07344682438192668</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>0.01904761904761905</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0.03912275007473455</v>
+        <v>0.009686028257456829</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0</v>
+        <v>0.005089476270939416</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43550</v>
+        <v>45559</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>221th Copom Minutes</t>
+          <t>265th Meeting - September 17-18, 2024</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.0359340776809166</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>0.04404761904761904</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.05054362130089034</v>
+        <v>0.01156689784114353</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0</v>
+        <v>0.004791126557406665</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43599</v>
+        <v>45610</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>222nd Copom Minutes</t>
+          <t>266th Meeting - November 5-6, 2024</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.05030531232725648</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>0.04553571428571428</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0.05205717717596909</v>
+        <v>0.01016954443923916</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0</v>
+        <v>0.008833341391480927</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43641</v>
+        <v>45643</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>223rd Copom Minutes</t>
+          <t>267th Meeting - December 10-11, 2024</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.04436871677782631</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>0.04464774951076321</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.06258974177721191</v>
+        <v>0.005943396226415094</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0</v>
+        <v>0.01243767059065275</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43683</v>
+        <v>45692</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>224th Copom Minutes</t>
+          <t>268th Meeting - January 28-29, 2025</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.05388741894148146</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>0.05912210338680927</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.05602608749197896</v>
+        <v>0.005654761904761904</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0</v>
+        <v>0.009268328865387195</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43732</v>
+        <v>45741</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>225th Copom Minutes</t>
+          <t>269th Meeting - March 18-19, 2025</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.04811763728674205</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>0.03314070986484779</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.04254883857861525</v>
+        <v>0.01269331975214328</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>0</v>
+        <v>0.007356966055929781</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43774</v>
+        <v>45790</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>226th Copom Minutes</t>
+          <t>270th Meeting - May 6-7, 2025</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.03363823872298449</v>
+        <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0.04141641641641642</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.03892322077837149</v>
+        <v>0.01276511315703357</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>0</v>
+        <v>0.007152442534014831</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43816</v>
+        <v>45832</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>227th Copom Minutes</t>
+          <t>271st Meeting - June 17-18, 2025</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.03474117093787636</v>
+        <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>0.05118181818181818</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>0.03465943388530875</v>
+        <v>0.01830105905058467</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
-        <v>43872</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>228th Copom Minutes</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
-        <v>0.02574561403508772</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0.04086538461538462</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.03732363146288084</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
-        <v>43913</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>229th Copom Minutes</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>0.0480745377092214</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.04086538461538462</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0.0497657945958413</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
-        <v>43963</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>230th Copom Minutes</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>0.05255582038617826</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.04050925925925926</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.07237842847124597</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
-        <v>44005</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>231st Copom Minutes</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
-        <v>0.06883695317625305</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.04050925925925926</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.07219024970434744</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
-        <v>44054</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>232nd Meeting – August 4-5, 2020</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
-        <v>0.07705047799590865</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0.04464285714285714</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0.05342530552971057</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
-        <v>44096</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>233rd Meeting - September 15-16, 2020</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>0.08634882995483942</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.0421195652173913</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0.04621866713886165</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
-        <v>44138</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>234th Meeting - October 27-28, 2020</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v>0.07466308072565722</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0.03860294117647059</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0.04946674990751017</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
-        <v>44180</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>235th Meeting - December 8-9, 2020</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
-        <v>0.04620143538433748</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.03860294117647059</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0.05033061891989225</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
-        <v>44222</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>236th Meeting - January 19-20, 2021</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v>0.05942305825792802</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0.04709856915739269</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0</v>
-      </c>
-      <c r="F196" t="n">
-        <v>0.04631853590186923</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
-        <v>44278</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>237th Meeting - March 16-17, 2021</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>0.05714321783856702</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0.03860294117647059</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0.05453740679107221</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
-        <v>44327</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>238th Meeting - May 4-5, 2021</t>
-        </is>
-      </c>
-      <c r="C198" t="n">
-        <v>0.03266178266178266</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0.03860294117647059</v>
-      </c>
-      <c r="E198" t="n">
-        <v>0</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0.0542738616911411</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
-        <v>44369</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>239th Meeting - June 15-16, 2021</t>
-        </is>
-      </c>
-      <c r="C199" t="n">
-        <v>0.05203887383528021</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0.04287790697674419</v>
-      </c>
-      <c r="E199" t="n">
-        <v>0</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0.05106139194894044</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
-        <v>44418</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>240th Meeting - August 3-4, 2021</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
-        <v>0.04503460126165144</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0.04573732718894009</v>
-      </c>
-      <c r="E200" t="n">
-        <v>0</v>
-      </c>
-      <c r="F200" t="n">
-        <v>0.06005997657341525</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
-        <v>44467</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>241st Meeting - September 21-22, 2021</t>
-        </is>
-      </c>
-      <c r="C201" t="n">
-        <v>0.0386193536902948</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0.04287790697674419</v>
-      </c>
-      <c r="E201" t="n">
-        <v>0</v>
-      </c>
-      <c r="F201" t="n">
-        <v>0.04845344405066809</v>
-      </c>
-      <c r="G201" t="n">
-        <v>0</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
-        <v>44503</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>242nd Meeting - October 26-27, 2021</t>
-        </is>
-      </c>
-      <c r="C202" t="n">
-        <v>0.04001998460202794</v>
-      </c>
-      <c r="D202" t="n">
-        <v>0.05355514096185738</v>
-      </c>
-      <c r="E202" t="n">
-        <v>0</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0.06471826148198995</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
-        <v>44544</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>243rd Meeting - December 7-8, 2021</t>
-        </is>
-      </c>
-      <c r="C203" t="n">
-        <v>0.0657662160086367</v>
-      </c>
-      <c r="D203" t="n">
-        <v>0.04926242236024845</v>
-      </c>
-      <c r="E203" t="n">
-        <v>0</v>
-      </c>
-      <c r="F203" t="n">
-        <v>0.06356922520528423</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
-        <v>44600</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>244th Meeting - February 1-2, 2022</t>
-        </is>
-      </c>
-      <c r="C204" t="n">
-        <v>0.0437468748570306</v>
-      </c>
-      <c r="D204" t="n">
-        <v>0.05456002331002331</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.05845198124300507</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0.02941176470588235</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
-        <v>44642</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>245th Meeting - March 15-16, 2022</t>
-        </is>
-      </c>
-      <c r="C205" t="n">
-        <v>0.05486111111111111</v>
-      </c>
-      <c r="D205" t="n">
-        <v>0.06466710372960373</v>
-      </c>
-      <c r="E205" t="n">
-        <v>0</v>
-      </c>
-      <c r="F205" t="n">
-        <v>0.06455360108220494</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
-        <v>44691</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>246th Meeting - May 3-4, 2022</t>
-        </is>
-      </c>
-      <c r="C206" t="n">
-        <v>0.06702327457710165</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0.08064516129032258</v>
-      </c>
-      <c r="E206" t="n">
-        <v>0</v>
-      </c>
-      <c r="F206" t="n">
-        <v>0.0517166487601668</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
-        <v>44733</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>247th Meeting - June 14-15, 2022</t>
-        </is>
-      </c>
-      <c r="C207" t="n">
-        <v>0.06451363964974248</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0.07058823529411765</v>
-      </c>
-      <c r="E207" t="n">
-        <v>0</v>
-      </c>
-      <c r="F207" t="n">
-        <v>0.05137438341005259</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
-        <v>44782</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>248th Meeting - August 2-3, 2022</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
-        <v>0.05495163471500324</v>
-      </c>
-      <c r="D208" t="n">
-        <v>0.07019704433497537</v>
-      </c>
-      <c r="E208" t="n">
-        <v>0</v>
-      </c>
-      <c r="F208" t="n">
-        <v>0.04316406596114894</v>
-      </c>
-      <c r="G208" t="n">
-        <v>0</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
-        <v>44831</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>249th Meeting - September 20-21, 2022</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
-        <v>0.05477753174509066</v>
-      </c>
-      <c r="D209" t="n">
-        <v>0.06329113924050633</v>
-      </c>
-      <c r="E209" t="n">
-        <v>0</v>
-      </c>
-      <c r="F209" t="n">
-        <v>0.04536815801826066</v>
-      </c>
-      <c r="G209" t="n">
-        <v>0</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0.01388888888888889</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
-        <v>44866</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>250th Meeting - October 25-26, 2022</t>
-        </is>
-      </c>
-      <c r="C210" t="n">
-        <v>0.03645613103406792</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0.06329113924050633</v>
-      </c>
-      <c r="E210" t="n">
-        <v>0</v>
-      </c>
-      <c r="F210" t="n">
-        <v>0.04592010813597502</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0.01388888888888889</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
-        <v>44908</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>251st Meeting - December 6-7, 2022</t>
-        </is>
-      </c>
-      <c r="C211" t="n">
-        <v>0.03107465665498534</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0.06329113924050633</v>
-      </c>
-      <c r="E211" t="n">
-        <v>0</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0.04397459006995027</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
-        <v>44964</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>252nd Meeting - January 31 - February 1, 2023</t>
-        </is>
-      </c>
-      <c r="C212" t="n">
-        <v>0.029724606793345</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0.03454545454545455</v>
-      </c>
-      <c r="E212" t="n">
-        <v>0</v>
-      </c>
-      <c r="F212" t="n">
-        <v>0.03164791591782353</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>253rd Meeting - March 21-22, 2023</t>
-        </is>
-      </c>
-      <c r="C213" t="n">
-        <v>0.02134616584903069</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0.04506578947368421</v>
-      </c>
-      <c r="E213" t="n">
-        <v>0</v>
-      </c>
-      <c r="F213" t="n">
-        <v>0.03451261747918938</v>
-      </c>
-      <c r="G213" t="n">
-        <v>0</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
-        <v>45055</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>254th Meeting - May 2-3, 2023</t>
-        </is>
-      </c>
-      <c r="C214" t="n">
-        <v>0.03053294107166867</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="E214" t="n">
-        <v>0</v>
-      </c>
-      <c r="F214" t="n">
-        <v>0.03556084503691088</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
-        <v>45104</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>255th Meeting - June 20-21, 2023</t>
-        </is>
-      </c>
-      <c r="C215" t="n">
-        <v>0.02489683317192357</v>
-      </c>
-      <c r="D215" t="n">
-        <v>0.0375</v>
-      </c>
-      <c r="E215" t="n">
-        <v>0</v>
-      </c>
-      <c r="F215" t="n">
-        <v>0.03718443084871222</v>
-      </c>
-      <c r="G215" t="n">
-        <v>0</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
-        <v>45146</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>256th Meeting - August 1-2, 2023</t>
-        </is>
-      </c>
-      <c r="C216" t="n">
-        <v>0.03588194277763484</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0.04576376004947433</v>
-      </c>
-      <c r="E216" t="n">
-        <v>0</v>
-      </c>
-      <c r="F216" t="n">
-        <v>0.03966813992218885</v>
-      </c>
-      <c r="G216" t="n">
-        <v>0</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
-        <v>45195</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>257th Meeting - September 19-20, 2023</t>
-        </is>
-      </c>
-      <c r="C217" t="n">
-        <v>0.02863542389254017</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0.06122448979591837</v>
-      </c>
-      <c r="E217" t="n">
-        <v>0</v>
-      </c>
-      <c r="F217" t="n">
-        <v>0.04011205311812667</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
-        <v>45237</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>258th Meeting - October 31 - November 1, 2023</t>
-        </is>
-      </c>
-      <c r="C218" t="n">
-        <v>0.02880444450585952</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0.06122448979591837</v>
-      </c>
-      <c r="E218" t="n">
-        <v>0</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0.04961852259329885</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
-        <v>45279</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>259th Meeting - December 12-13, 2023</t>
-        </is>
-      </c>
-      <c r="C219" t="n">
-        <v>0.03191003620538208</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="E219" t="n">
-        <v>0</v>
-      </c>
-      <c r="F219" t="n">
-        <v>0.03374066879245356</v>
-      </c>
-      <c r="G219" t="n">
-        <v>0</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
-        <v>45328</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>260th Meeting - January 30-31, 2024</t>
-        </is>
-      </c>
-      <c r="C220" t="n">
-        <v>0.02798564320140617</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0.05625</v>
-      </c>
-      <c r="E220" t="n">
-        <v>0</v>
-      </c>
-      <c r="F220" t="n">
-        <v>0.03425878327932795</v>
-      </c>
-      <c r="G220" t="n">
-        <v>0</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
-        <v>45377</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>261st Meeting - March 19-20, 2024</t>
-        </is>
-      </c>
-      <c r="C221" t="n">
-        <v>0.03066538417098101</v>
-      </c>
-      <c r="D221" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="E221" t="n">
-        <v>0</v>
-      </c>
-      <c r="F221" t="n">
-        <v>0.03813059118038784</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
-        <v>45426</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>262nd Meeting - May 7-8, 2024</t>
-        </is>
-      </c>
-      <c r="C222" t="n">
-        <v>0.02701367007609034</v>
-      </c>
-      <c r="D222" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="E222" t="n">
-        <v>0</v>
-      </c>
-      <c r="F222" t="n">
-        <v>0.03754924995021496</v>
-      </c>
-      <c r="G222" t="n">
-        <v>0</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
-        <v>45468</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>263rd Meeting - June 18-19, 2024</t>
-        </is>
-      </c>
-      <c r="C223" t="n">
-        <v>0.03044215865025997</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E223" t="n">
-        <v>0</v>
-      </c>
-      <c r="F223" t="n">
-        <v>0.03706160915779172</v>
-      </c>
-      <c r="G223" t="n">
-        <v>0</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
-        <v>45510</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>264th Meeting - July 30-31, 2024</t>
-        </is>
-      </c>
-      <c r="C224" t="n">
-        <v>0.03708132821701038</v>
-      </c>
-      <c r="D224" t="n">
-        <v>0.01886792452830189</v>
-      </c>
-      <c r="E224" t="n">
-        <v>0</v>
-      </c>
-      <c r="F224" t="n">
-        <v>0.03027173233331552</v>
-      </c>
-      <c r="G224" t="n">
-        <v>0</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
-        <v>45559</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>265th Meeting - September 17-18, 2024</t>
-        </is>
-      </c>
-      <c r="C225" t="n">
-        <v>0.03263814939425565</v>
-      </c>
-      <c r="D225" t="n">
-        <v>0.03658536585365853</v>
-      </c>
-      <c r="E225" t="n">
-        <v>0</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0.02914483519086149</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
-        <v>45610</v>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>266th Meeting - November 5-6, 2024</t>
-        </is>
-      </c>
-      <c r="C226" t="n">
-        <v>0.03802051513390196</v>
-      </c>
-      <c r="D226" t="n">
-        <v>0.01666666666666667</v>
-      </c>
-      <c r="E226" t="n">
-        <v>0</v>
-      </c>
-      <c r="F226" t="n">
-        <v>0.03380432655204438</v>
-      </c>
-      <c r="G226" t="n">
-        <v>0</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
-        <v>45643</v>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>267th Meeting - December 10-11, 2024</t>
-        </is>
-      </c>
-      <c r="C227" t="n">
-        <v>0.0345171765591686</v>
-      </c>
-      <c r="D227" t="n">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="E227" t="n">
-        <v>0</v>
-      </c>
-      <c r="F227" t="n">
-        <v>0.04447172033907373</v>
-      </c>
-      <c r="G227" t="n">
-        <v>0</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
-        <v>45692</v>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>268th Meeting - January 28-29, 2025</t>
-        </is>
-      </c>
-      <c r="C228" t="n">
-        <v>0.03121210519178329</v>
-      </c>
-      <c r="D228" t="n">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="E228" t="n">
-        <v>0</v>
-      </c>
-      <c r="F228" t="n">
-        <v>0.04397907062575006</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
-        <v>45741</v>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>269th Meeting - March 18-19, 2025</t>
-        </is>
-      </c>
-      <c r="C229" t="n">
-        <v>0.04170296344027014</v>
-      </c>
-      <c r="D229" t="n">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="E229" t="n">
-        <v>0</v>
-      </c>
-      <c r="F229" t="n">
-        <v>0.02443235830457442</v>
-      </c>
-      <c r="G229" t="n">
-        <v>0</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
-        <v>45790</v>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>270th Meeting - May 6-7, 2025</t>
-        </is>
-      </c>
-      <c r="C230" t="n">
-        <v>0.03431222022076172</v>
-      </c>
-      <c r="D230" t="n">
-        <v>0.02272727272727272</v>
-      </c>
-      <c r="E230" t="n">
-        <v>0</v>
-      </c>
-      <c r="F230" t="n">
-        <v>0.02572488726238014</v>
-      </c>
-      <c r="G230" t="n">
-        <v>0</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
-        <v>45832</v>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>271st Meeting - June 17-18, 2025</t>
-        </is>
-      </c>
-      <c r="C231" t="n">
-        <v>0.04109927927514601</v>
-      </c>
-      <c r="D231" t="n">
-        <v>0.02222222222222222</v>
-      </c>
-      <c r="E231" t="n">
-        <v>0</v>
-      </c>
-      <c r="F231" t="n">
-        <v>0.01775195499845551</v>
-      </c>
-      <c r="G231" t="n">
-        <v>0</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="n">
-        <v>0</v>
+        <v>0.004948730520310632</v>
       </c>
     </row>
   </sheetData>
